--- a/docs/試験項目書兼結果報告書/試験項目書兼結果報告書_在庫センター情報画面 (機能改修).xlsx
+++ b/docs/試験項目書兼結果報告書/試験項目書兼結果報告書_在庫センター情報画面 (機能改修).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOJT_模擬開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39979476-351E-4AE4-B204-FEEAD485A48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF61D4F-73BC-4887-B5EE-8AE98FE854B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="障害ID_xxx" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">エビデンス!$A$1:$AX$228</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">エビデンス!$A$1:$AW$340</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">試験項目!$A$1:$U$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">障害ID_xxx!$A$1:$AW$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">不具合報告!$A$1:$K$24</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -547,39 +547,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">①検索条件を以下の通りに入力
-センター名：東京　
-都道府県：東京
-有効な範囲で現在容量From、Toを入力：
-From=100　　To=500
-</t>
-    <rPh sb="1" eb="5">
-      <t>ケンサクジョウケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウキョウ</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>在庫センター情報テーブルの以下条件に該当するレコードのみが表示されていること。
 ＜条件＞
 センター名が「東京」
@@ -634,52 +601,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">②検索条件を以下の通りに入力
-センター名：東京　
-都道府県：東京
-現在容量From、Toに境界値を入力：
-最小値：From=1
-最大値：To=9999999999
-</t>
-    <rPh sb="1" eb="5">
-      <t>ケンサクジョウケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウキョウ</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウキョウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>キョウカイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="53" eb="56">
-      <t>サイショウチ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>サイダイチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -759,6 +680,113 @@
     <rPh sb="30" eb="32">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①検索条件を以下の通りに入力
+センター名：東京　
+都道府県：東京都
+有効な範囲で現在容量From、Toを入力：
+From=100　　To=500
+</t>
+    <rPh sb="1" eb="5">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②検索条件を以下の通りに入力
+センター名：東京　
+都道府県：東京都
+現在容量From、Toに境界値を入力：
+最小値：From=1
+最大値：To=999999999
+</t>
+    <rPh sb="1" eb="5">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025-05-27_stockmng.log</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1060,7 +1088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1205,7 +1233,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1214,13 +1266,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1259,44 +1323,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,18 +1354,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,6 +1389,2020 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76871</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101867</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A52439-E577-A9A4-BEF4-785C8877001E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="385300" y="1843791"/>
+          <a:ext cx="11062843" cy="5370076"/>
+          <a:chOff x="385300" y="1843791"/>
+          <a:chExt cx="11062843" cy="5370076"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C274449E-E869-B754-7443-BC9D3EF133EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385300" y="1843791"/>
+            <a:ext cx="11062843" cy="5370076"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BE0685-EDE1-A837-4380-E86F55F57164}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5070929" y="2975429"/>
+            <a:ext cx="1678213" cy="1097642"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8405</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>89171</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>102320</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AED377-4CD1-1DC2-3038-E95D2F4FA6D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="316834" y="7928429"/>
+          <a:ext cx="11184194" cy="5381891"/>
+          <a:chOff x="316834" y="7928429"/>
+          <a:chExt cx="11184194" cy="5381891"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40457DBF-ECA5-D216-224A-2DA49EA09F84}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="334976" y="7928429"/>
+            <a:ext cx="11166052" cy="5381891"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8319B8-7901-4EB0-B50F-566BFAE4D609}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="316834" y="9044214"/>
+            <a:ext cx="1379524" cy="362857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>155643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>96773</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>231594</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF2B479-DE94-621A-73A8-535FC5AA596C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="371929" y="13617643"/>
+          <a:ext cx="11136701" cy="5409951"/>
+          <a:chOff x="371929" y="13617643"/>
+          <a:chExt cx="11136701" cy="5409951"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="グループ化 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95176354-86CE-EAB8-6CC7-128B56F8EB42}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="371929" y="13617643"/>
+            <a:ext cx="11136701" cy="5409951"/>
+            <a:chOff x="371929" y="13617643"/>
+            <a:chExt cx="11136701" cy="5409951"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="図 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5951F0-F0B2-26AA-B669-63AA4D21A66C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="371929" y="13617643"/>
+              <a:ext cx="11136701" cy="5409951"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="正方形/長方形 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7897BD97-6BBF-4407-9671-C3B09B35A24F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5705928" y="14552002"/>
+              <a:ext cx="3510643" cy="388642"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+              <a:headEnd type="none" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDC98DF-BDC3-4F48-91A9-67A2C185BD02}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8409215" y="15196070"/>
+            <a:ext cx="2866572" cy="3001215"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30997</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>79592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>128170</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303E339B-9819-4B64-691D-F36BF20229CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="339426" y="19637592"/>
+          <a:ext cx="11199431" cy="5382578"/>
+          <a:chOff x="339426" y="19637592"/>
+          <a:chExt cx="11199431" cy="5382578"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="図 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C3F7C3-50D4-EDED-DAA4-4A677B6EFB9B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="339426" y="19637592"/>
+            <a:ext cx="11199431" cy="5382578"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C2A2DE-17A7-4E3C-935A-10AE958BE6FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5700640" y="20998306"/>
+            <a:ext cx="3510643" cy="388642"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AF37A3-8D52-4E37-A907-AFA2A0F90A93}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8084611" y="21622419"/>
+            <a:ext cx="3372603" cy="647937"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90964</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>124772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>217974</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="グループ化 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA1E71E-DC11-B3EF-DC55-DF6F66439687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="399393" y="26540772"/>
+          <a:ext cx="11311822" cy="5427202"/>
+          <a:chOff x="399393" y="26540772"/>
+          <a:chExt cx="11311822" cy="5427202"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="図 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6536DFD-2779-B048-38A0-8989F93514A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="399393" y="26540772"/>
+            <a:ext cx="11311822" cy="5427202"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0D28C4-C317-4CBB-802A-E73725757BD7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5824108" y="27484200"/>
+            <a:ext cx="2249464" cy="374157"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7A3D01-4118-4D73-A113-6D4F68C82E21}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1812722" y="27745457"/>
+            <a:ext cx="1026635" cy="194543"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86828</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>165138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>72571</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>36545</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DCEDB1-33C7-CB63-5C12-11A94722C859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="395257" y="32677138"/>
+          <a:ext cx="11397600" cy="5459407"/>
+          <a:chOff x="395257" y="32677138"/>
+          <a:chExt cx="11397600" cy="5459407"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="図 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6AA36E-6D37-CF34-7464-C979D60BD126}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="395257" y="32677138"/>
+            <a:ext cx="11397600" cy="5459407"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC54C76-9BB4-4467-909F-930B4EC36354}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7953572" y="33611495"/>
+            <a:ext cx="1634928" cy="388219"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F389F1A-DB1E-4F35-8506-0E92EAC4D1AF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1819472" y="33890895"/>
+            <a:ext cx="1026635" cy="194543"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74820</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>146340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>181428</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>160388</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DB559F-F3A8-6699-F749-D5746B3A9F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="383249" y="38754340"/>
+          <a:ext cx="11518465" cy="5602048"/>
+          <a:chOff x="383249" y="38754340"/>
+          <a:chExt cx="11518465" cy="5602048"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="26" name="図 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354D0CE2-15CA-9192-7FA4-F523DAAF6ECC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="383249" y="38754340"/>
+            <a:ext cx="11518465" cy="5602048"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5C02AF-49AC-4F28-879C-C9FF5167E170}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6524606" y="39734055"/>
+            <a:ext cx="2973180" cy="361659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C347CE6A-72E2-492E-A5F8-CBE9FF59A2B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1861891" y="40015270"/>
+            <a:ext cx="2002538" cy="198373"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53543</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>119885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>51505</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B39A2BB-1FA0-D2C0-889A-B9C94F1308B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="361972" y="45839885"/>
+          <a:ext cx="11603242" cy="5519620"/>
+          <a:chOff x="361972" y="45839885"/>
+          <a:chExt cx="11603242" cy="5519620"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="30" name="図 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C97C5A94-697C-6370-23B7-206440EF8C3B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="361972" y="45839885"/>
+            <a:ext cx="11603242" cy="5519620"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F888D7-DE08-481E-B175-2A5F684A0DE0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2330472" y="47200599"/>
+            <a:ext cx="7230814" cy="369972"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26E45A2-3988-4428-ABFE-3FC8290F514E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1904114" y="48180314"/>
+            <a:ext cx="9970385" cy="324616"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12068</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>71422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>263070</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>54689</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="グループ化 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F96030-8463-A423-DE82-2AD4AE3A5454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="320497" y="52395422"/>
+          <a:ext cx="11662859" cy="5571267"/>
+          <a:chOff x="320497" y="52395422"/>
+          <a:chExt cx="11662859" cy="5571267"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="34" name="図 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1507406D-CB05-5463-B9D1-0E65598B6288}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="320497" y="52395422"/>
+            <a:ext cx="11662859" cy="5571267"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DE6CD0-2445-440A-A6FD-4C2BAAFBB135}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2261783" y="53792422"/>
+            <a:ext cx="7230814" cy="369972"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55E6347-1B54-4DD1-A494-7A790E12C11B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1835425" y="54772137"/>
+            <a:ext cx="9970385" cy="324616"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>94240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>241914</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>71468</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="グループ化 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DD9717-3EBC-DC0B-147E-A688ADE4F374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="335642" y="59276240"/>
+          <a:ext cx="11626558" cy="5565228"/>
+          <a:chOff x="362857" y="59276239"/>
+          <a:chExt cx="11626558" cy="5565228"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="38" name="図 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50BB1AF-15DF-6D0E-A147-C29205C85A80}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="362857" y="59276239"/>
+            <a:ext cx="11626558" cy="5565228"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887E4B02-FF1D-4377-BCFF-3D69F2D78A14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1823357" y="60918167"/>
+            <a:ext cx="480786" cy="377476"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>226786</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>46650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>165656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E9C97C-6311-8D7F-FD1C-2C4E4ACC19C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="226786" y="65578650"/>
+          <a:ext cx="14296571" cy="1135006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28157</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>84967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>72571</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>48775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="グループ化 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2623C2D-DF65-E155-8D83-0B801B682F2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="336586" y="67902967"/>
+          <a:ext cx="11764699" cy="5551808"/>
+          <a:chOff x="336586" y="67902967"/>
+          <a:chExt cx="11764699" cy="5551808"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="42" name="図 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFBDE69F-8745-4F73-DDC7-AE15EA77579E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="336586" y="67902967"/>
+            <a:ext cx="11764699" cy="5551808"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85535909-D602-44A3-B39C-761AF89394B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1833371" y="69417896"/>
+            <a:ext cx="480786" cy="377476"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>282161</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>111040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>93222</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="グループ化 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F9F0C7-21E8-D71B-AB8D-4DEA42016556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="282161" y="73771040"/>
+          <a:ext cx="11882625" cy="5570182"/>
+          <a:chOff x="282161" y="73771040"/>
+          <a:chExt cx="11882625" cy="5570182"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="45" name="図 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28694FD0-D620-6C6B-18C6-315E4700DA9D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="282161" y="73771040"/>
+            <a:ext cx="11882625" cy="5570182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B84CCE-2B83-44C3-AE29-84D1C9BBC0DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6831731" y="76102397"/>
+            <a:ext cx="5314911" cy="288103"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304523</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>135441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>132236</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="グループ化 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF9F3DE-EFD4-A150-0EF2-C1F1FD0FEB24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="304523" y="80145441"/>
+          <a:ext cx="11805833" cy="5584795"/>
+          <a:chOff x="304523" y="80145441"/>
+          <a:chExt cx="11805833" cy="5584795"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="48" name="図 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A4A8C8-069A-EEAB-9416-A03CCEC56487}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="304523" y="80145441"/>
+            <a:ext cx="11805833" cy="5584795"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA6FDC0-3F3C-4016-A4AC-1F639113EB8D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828523" y="81170512"/>
+            <a:ext cx="4875263" cy="426988"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="正方形/長方形 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99E3DF8-742E-4C48-B65B-89E126CC5033}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6879495" y="84497912"/>
+            <a:ext cx="5167362" cy="283659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1691,120 +3730,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="46"/>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="64" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="66" t="s">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="46"/>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="67"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="60"/>
     </row>
     <row r="3" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="45" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="46"/>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="64" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="68">
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="61">
         <v>45799</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="45" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="46"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="69"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="62"/>
     </row>
     <row r="5" spans="1:19" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
@@ -1814,23 +3853,23 @@
       <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="61" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63" t="s">
+      <c r="N5" s="74"/>
+      <c r="O5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="63"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1842,228 +3881,260 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="76">
+      <c r="A6" s="53">
         <f>ROW(A6)-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="48" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="58"/>
+      <c r="O6" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="52"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" s="7" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="58"/>
+      <c r="O7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="52"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" s="7" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="58"/>
+      <c r="O8" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="52"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="12"/>
       <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" s="7" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="77"/>
-      <c r="B9" s="76">
+      <c r="A9" s="54"/>
+      <c r="B9" s="53">
         <v>2</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="48" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="58"/>
+      <c r="O9" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="52"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" s="7" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="58"/>
+      <c r="O10" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="52"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" s="7" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="58"/>
+      <c r="O11" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="52"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:19" s="7" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="77"/>
-      <c r="B12" s="76">
+      <c r="A12" s="54"/>
+      <c r="B12" s="53">
         <v>3</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="48" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>61</v>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="57" t="s">
+        <v>39</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="52"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" s="7" customFormat="1" ht="108.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="47" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>62</v>
+      <c r="F13" s="52" t="s">
+        <v>61</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="58"/>
+      <c r="O13" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="52"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="11"/>
     </row>
     <row r="14" spans="1:19" s="7" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="77"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="8">
         <v>4</v>
       </c>
@@ -2076,222 +4147,234 @@
       <c r="E14" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="58"/>
+      <c r="O14" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="52"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" s="7" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="77"/>
-      <c r="B15" s="73">
+      <c r="A15" s="54"/>
+      <c r="B15" s="48">
         <v>5</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="48" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="72"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="58"/>
+      <c r="O15" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="52"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.6">
-      <c r="A16" s="77"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>66</v>
+      <c r="F16" s="52" t="s">
+        <v>64</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="58"/>
+      <c r="O16" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="52"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.6">
-      <c r="A17" s="77"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.6">
-      <c r="A18" s="77"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.6">
-      <c r="A19" s="77"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.6">
-      <c r="A20" s="77"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.6">
-      <c r="A21" s="77"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.6">
-      <c r="A22" s="77"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.6">
-      <c r="A23" s="78"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="8"/>
@@ -2302,49 +4385,27 @@
     <row r="27" spans="1:19" s="7" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A6:A23"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="P1:R2"/>
+    <mergeCell ref="P3:R4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="F7:L7"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="F23:L23"/>
@@ -2361,27 +4422,49 @@
     <mergeCell ref="F14:L14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="P1:R2"/>
-    <mergeCell ref="P3:R4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A6:A23"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2391,7 +4474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A998546-974D-3744-9E49-E8CBED3EA6E4}">
-  <dimension ref="A1:AW228"/>
+  <dimension ref="A1:AW340"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:N4"/>
@@ -2403,190 +4486,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="82" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="60" t="s">
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="64" t="s">
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="83" t="str">
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="86" t="str">
         <f>試験項目!S1</f>
         <v>陳恩美</v>
       </c>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
     </row>
     <row r="2" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="82" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="60" t="s">
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
     </row>
     <row r="3" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="82" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="83" t="str">
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="86" t="str">
         <f>試験項目!I3</f>
         <v>在庫センター情報</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="64" t="s">
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="84">
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="87">
         <f>試験項目!S3</f>
         <v>45799</v>
       </c>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
     </row>
     <row r="4" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="82" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="83" t="str">
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="86" t="str">
         <f>試験項目!I4</f>
         <v>IT01F004</v>
       </c>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
     </row>
     <row r="5" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2644,7 +4727,9 @@
     </row>
     <row r="7" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -3868,7 +5953,9 @@
     </row>
     <row r="31" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -6214,7 +8301,9 @@
     </row>
     <row r="77" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
@@ -6519,59 +8608,55 @@
       <c r="AW82" s="22"/>
     </row>
     <row r="83" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="87"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="29"/>
-      <c r="V83" s="29"/>
-      <c r="W83" s="29"/>
-      <c r="X83" s="29"/>
-      <c r="Y83" s="29"/>
-      <c r="Z83" s="29"/>
-      <c r="AA83" s="29"/>
-      <c r="AB83" s="29"/>
-      <c r="AC83" s="29"/>
-      <c r="AD83" s="29"/>
-      <c r="AE83" s="29"/>
-      <c r="AF83" s="29"/>
-      <c r="AG83" s="29"/>
-      <c r="AH83" s="29"/>
-      <c r="AI83" s="29"/>
-      <c r="AJ83" s="29"/>
-      <c r="AK83" s="29"/>
-      <c r="AL83" s="29"/>
-      <c r="AM83" s="29"/>
-      <c r="AN83" s="29"/>
-      <c r="AO83" s="29"/>
-      <c r="AP83" s="29"/>
-      <c r="AQ83" s="29"/>
-      <c r="AR83" s="29"/>
-      <c r="AS83" s="29"/>
-      <c r="AT83" s="29"/>
-      <c r="AU83" s="29"/>
-      <c r="AV83" s="29"/>
-      <c r="AW83" s="30"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+      <c r="AH83" s="20"/>
+      <c r="AI83" s="20"/>
+      <c r="AJ83" s="20"/>
+      <c r="AK83" s="20"/>
+      <c r="AL83" s="20"/>
+      <c r="AM83" s="20"/>
+      <c r="AN83" s="20"/>
+      <c r="AO83" s="20"/>
+      <c r="AP83" s="20"/>
+      <c r="AQ83" s="20"/>
+      <c r="AR83" s="20"/>
+      <c r="AS83" s="20"/>
+      <c r="AT83" s="20"/>
+      <c r="AU83" s="20"/>
+      <c r="AV83" s="20"/>
+      <c r="AW83" s="22"/>
     </row>
     <row r="84" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A84" s="19"/>
@@ -7492,55 +9577,59 @@
       <c r="AW101" s="22"/>
     </row>
     <row r="102" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="20"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="20"/>
-      <c r="S102" s="21"/>
-      <c r="T102" s="21"/>
-      <c r="U102" s="21"/>
-      <c r="V102" s="21"/>
-      <c r="W102" s="20"/>
-      <c r="X102" s="20"/>
-      <c r="Y102" s="20"/>
-      <c r="Z102" s="20"/>
-      <c r="AA102" s="20"/>
-      <c r="AB102" s="20"/>
-      <c r="AC102" s="20"/>
-      <c r="AD102" s="20"/>
-      <c r="AE102" s="20"/>
-      <c r="AF102" s="20"/>
-      <c r="AG102" s="20"/>
-      <c r="AH102" s="20"/>
-      <c r="AI102" s="20"/>
-      <c r="AJ102" s="20"/>
-      <c r="AK102" s="20"/>
-      <c r="AL102" s="20"/>
-      <c r="AM102" s="20"/>
-      <c r="AN102" s="20"/>
-      <c r="AO102" s="20"/>
-      <c r="AP102" s="20"/>
-      <c r="AQ102" s="20"/>
-      <c r="AR102" s="20"/>
-      <c r="AS102" s="20"/>
-      <c r="AT102" s="20"/>
-      <c r="AU102" s="20"/>
-      <c r="AV102" s="20"/>
-      <c r="AW102" s="22"/>
+      <c r="A102" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="78"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="29"/>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="29"/>
+      <c r="R102" s="29"/>
+      <c r="S102" s="29"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="29"/>
+      <c r="V102" s="29"/>
+      <c r="W102" s="29"/>
+      <c r="X102" s="29"/>
+      <c r="Y102" s="29"/>
+      <c r="Z102" s="29"/>
+      <c r="AA102" s="29"/>
+      <c r="AB102" s="29"/>
+      <c r="AC102" s="29"/>
+      <c r="AD102" s="29"/>
+      <c r="AE102" s="29"/>
+      <c r="AF102" s="29"/>
+      <c r="AG102" s="29"/>
+      <c r="AH102" s="29"/>
+      <c r="AI102" s="29"/>
+      <c r="AJ102" s="29"/>
+      <c r="AK102" s="29"/>
+      <c r="AL102" s="29"/>
+      <c r="AM102" s="29"/>
+      <c r="AN102" s="29"/>
+      <c r="AO102" s="29"/>
+      <c r="AP102" s="29"/>
+      <c r="AQ102" s="29"/>
+      <c r="AR102" s="29"/>
+      <c r="AS102" s="29"/>
+      <c r="AT102" s="29"/>
+      <c r="AU102" s="29"/>
+      <c r="AV102" s="29"/>
+      <c r="AW102" s="30"/>
     </row>
     <row r="103" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103" s="19"/>
@@ -7595,7 +9684,9 @@
     </row>
     <row r="104" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A104" s="19"/>
-      <c r="B104" s="20"/>
+      <c r="B104" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
@@ -8819,7 +10910,9 @@
     </row>
     <row r="128" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128" s="19"/>
-      <c r="B128" s="20"/>
+      <c r="B128" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
@@ -9583,59 +11676,55 @@
       <c r="AW142" s="22"/>
     </row>
     <row r="143" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A143" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" s="86"/>
-      <c r="C143" s="86"/>
-      <c r="D143" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="E143" s="87"/>
-      <c r="F143" s="87"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="29"/>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
-      <c r="M143" s="29"/>
-      <c r="N143" s="29"/>
-      <c r="O143" s="29"/>
-      <c r="P143" s="29"/>
-      <c r="Q143" s="29"/>
-      <c r="R143" s="29"/>
-      <c r="S143" s="29"/>
-      <c r="T143" s="29"/>
-      <c r="U143" s="29"/>
-      <c r="V143" s="29"/>
-      <c r="W143" s="29"/>
-      <c r="X143" s="29"/>
-      <c r="Y143" s="29"/>
-      <c r="Z143" s="29"/>
-      <c r="AA143" s="29"/>
-      <c r="AB143" s="29"/>
-      <c r="AC143" s="29"/>
-      <c r="AD143" s="29"/>
-      <c r="AE143" s="29"/>
-      <c r="AF143" s="29"/>
-      <c r="AG143" s="29"/>
-      <c r="AH143" s="29"/>
-      <c r="AI143" s="29"/>
-      <c r="AJ143" s="29"/>
-      <c r="AK143" s="29"/>
-      <c r="AL143" s="29"/>
-      <c r="AM143" s="29"/>
-      <c r="AN143" s="29"/>
-      <c r="AO143" s="29"/>
-      <c r="AP143" s="29"/>
-      <c r="AQ143" s="29"/>
-      <c r="AR143" s="29"/>
-      <c r="AS143" s="29"/>
-      <c r="AT143" s="29"/>
-      <c r="AU143" s="29"/>
-      <c r="AV143" s="29"/>
-      <c r="AW143" s="30"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="20"/>
+      <c r="O143" s="20"/>
+      <c r="P143" s="20"/>
+      <c r="Q143" s="20"/>
+      <c r="R143" s="20"/>
+      <c r="S143" s="21"/>
+      <c r="T143" s="21"/>
+      <c r="U143" s="21"/>
+      <c r="V143" s="21"/>
+      <c r="W143" s="20"/>
+      <c r="X143" s="20"/>
+      <c r="Y143" s="20"/>
+      <c r="Z143" s="20"/>
+      <c r="AA143" s="20"/>
+      <c r="AB143" s="20"/>
+      <c r="AC143" s="20"/>
+      <c r="AD143" s="20"/>
+      <c r="AE143" s="20"/>
+      <c r="AF143" s="20"/>
+      <c r="AG143" s="20"/>
+      <c r="AH143" s="20"/>
+      <c r="AI143" s="20"/>
+      <c r="AJ143" s="20"/>
+      <c r="AK143" s="20"/>
+      <c r="AL143" s="20"/>
+      <c r="AM143" s="20"/>
+      <c r="AN143" s="20"/>
+      <c r="AO143" s="20"/>
+      <c r="AP143" s="20"/>
+      <c r="AQ143" s="20"/>
+      <c r="AR143" s="20"/>
+      <c r="AS143" s="20"/>
+      <c r="AT143" s="20"/>
+      <c r="AU143" s="20"/>
+      <c r="AV143" s="20"/>
+      <c r="AW143" s="22"/>
     </row>
     <row r="144" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A144" s="19"/>
@@ -9656,10 +11745,10 @@
       <c r="P144" s="20"/>
       <c r="Q144" s="20"/>
       <c r="R144" s="20"/>
-      <c r="S144" s="20"/>
-      <c r="T144" s="20"/>
-      <c r="U144" s="20"/>
-      <c r="V144" s="20"/>
+      <c r="S144" s="21"/>
+      <c r="T144" s="21"/>
+      <c r="U144" s="21"/>
+      <c r="V144" s="21"/>
       <c r="W144" s="20"/>
       <c r="X144" s="20"/>
       <c r="Y144" s="20"/>
@@ -9689,147 +11778,1801 @@
       <c r="AW144" s="22"/>
     </row>
     <row r="145" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A145" s="23"/>
-      <c r="AW145" s="24"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="20"/>
+      <c r="O145" s="20"/>
+      <c r="P145" s="20"/>
+      <c r="Q145" s="20"/>
+      <c r="R145" s="20"/>
+      <c r="S145" s="21"/>
+      <c r="T145" s="21"/>
+      <c r="U145" s="21"/>
+      <c r="V145" s="21"/>
+      <c r="W145" s="20"/>
+      <c r="X145" s="20"/>
+      <c r="Y145" s="20"/>
+      <c r="Z145" s="20"/>
+      <c r="AA145" s="20"/>
+      <c r="AB145" s="20"/>
+      <c r="AC145" s="20"/>
+      <c r="AD145" s="20"/>
+      <c r="AE145" s="20"/>
+      <c r="AF145" s="20"/>
+      <c r="AG145" s="20"/>
+      <c r="AH145" s="20"/>
+      <c r="AI145" s="20"/>
+      <c r="AJ145" s="20"/>
+      <c r="AK145" s="20"/>
+      <c r="AL145" s="20"/>
+      <c r="AM145" s="20"/>
+      <c r="AN145" s="20"/>
+      <c r="AO145" s="20"/>
+      <c r="AP145" s="20"/>
+      <c r="AQ145" s="20"/>
+      <c r="AR145" s="20"/>
+      <c r="AS145" s="20"/>
+      <c r="AT145" s="20"/>
+      <c r="AU145" s="20"/>
+      <c r="AV145" s="20"/>
+      <c r="AW145" s="22"/>
     </row>
     <row r="146" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A146" s="23"/>
-      <c r="AW146" s="24"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="20"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="20"/>
+      <c r="Q146" s="20"/>
+      <c r="R146" s="20"/>
+      <c r="S146" s="21"/>
+      <c r="T146" s="21"/>
+      <c r="U146" s="21"/>
+      <c r="V146" s="21"/>
+      <c r="W146" s="20"/>
+      <c r="X146" s="20"/>
+      <c r="Y146" s="20"/>
+      <c r="Z146" s="20"/>
+      <c r="AA146" s="20"/>
+      <c r="AB146" s="20"/>
+      <c r="AC146" s="20"/>
+      <c r="AD146" s="20"/>
+      <c r="AE146" s="20"/>
+      <c r="AF146" s="20"/>
+      <c r="AG146" s="20"/>
+      <c r="AH146" s="20"/>
+      <c r="AI146" s="20"/>
+      <c r="AJ146" s="20"/>
+      <c r="AK146" s="20"/>
+      <c r="AL146" s="20"/>
+      <c r="AM146" s="20"/>
+      <c r="AN146" s="20"/>
+      <c r="AO146" s="20"/>
+      <c r="AP146" s="20"/>
+      <c r="AQ146" s="20"/>
+      <c r="AR146" s="20"/>
+      <c r="AS146" s="20"/>
+      <c r="AT146" s="20"/>
+      <c r="AU146" s="20"/>
+      <c r="AV146" s="20"/>
+      <c r="AW146" s="22"/>
     </row>
     <row r="147" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A147" s="23"/>
-      <c r="AW147" s="24"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="20"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="20"/>
+      <c r="Q147" s="20"/>
+      <c r="R147" s="20"/>
+      <c r="S147" s="21"/>
+      <c r="T147" s="21"/>
+      <c r="U147" s="21"/>
+      <c r="V147" s="21"/>
+      <c r="W147" s="20"/>
+      <c r="X147" s="20"/>
+      <c r="Y147" s="20"/>
+      <c r="Z147" s="20"/>
+      <c r="AA147" s="20"/>
+      <c r="AB147" s="20"/>
+      <c r="AC147" s="20"/>
+      <c r="AD147" s="20"/>
+      <c r="AE147" s="20"/>
+      <c r="AF147" s="20"/>
+      <c r="AG147" s="20"/>
+      <c r="AH147" s="20"/>
+      <c r="AI147" s="20"/>
+      <c r="AJ147" s="20"/>
+      <c r="AK147" s="20"/>
+      <c r="AL147" s="20"/>
+      <c r="AM147" s="20"/>
+      <c r="AN147" s="20"/>
+      <c r="AO147" s="20"/>
+      <c r="AP147" s="20"/>
+      <c r="AQ147" s="20"/>
+      <c r="AR147" s="20"/>
+      <c r="AS147" s="20"/>
+      <c r="AT147" s="20"/>
+      <c r="AU147" s="20"/>
+      <c r="AV147" s="20"/>
+      <c r="AW147" s="22"/>
     </row>
     <row r="148" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A148" s="23"/>
-      <c r="AW148" s="24"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="20"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="20"/>
+      <c r="M148" s="20"/>
+      <c r="N148" s="20"/>
+      <c r="O148" s="20"/>
+      <c r="P148" s="20"/>
+      <c r="Q148" s="20"/>
+      <c r="R148" s="20"/>
+      <c r="S148" s="21"/>
+      <c r="T148" s="21"/>
+      <c r="U148" s="21"/>
+      <c r="V148" s="21"/>
+      <c r="W148" s="20"/>
+      <c r="X148" s="20"/>
+      <c r="Y148" s="20"/>
+      <c r="Z148" s="20"/>
+      <c r="AA148" s="20"/>
+      <c r="AB148" s="20"/>
+      <c r="AC148" s="20"/>
+      <c r="AD148" s="20"/>
+      <c r="AE148" s="20"/>
+      <c r="AF148" s="20"/>
+      <c r="AG148" s="20"/>
+      <c r="AH148" s="20"/>
+      <c r="AI148" s="20"/>
+      <c r="AJ148" s="20"/>
+      <c r="AK148" s="20"/>
+      <c r="AL148" s="20"/>
+      <c r="AM148" s="20"/>
+      <c r="AN148" s="20"/>
+      <c r="AO148" s="20"/>
+      <c r="AP148" s="20"/>
+      <c r="AQ148" s="20"/>
+      <c r="AR148" s="20"/>
+      <c r="AS148" s="20"/>
+      <c r="AT148" s="20"/>
+      <c r="AU148" s="20"/>
+      <c r="AV148" s="20"/>
+      <c r="AW148" s="22"/>
     </row>
     <row r="149" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A149" s="23"/>
-      <c r="AW149" s="24"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="20"/>
+      <c r="K149" s="20"/>
+      <c r="L149" s="20"/>
+      <c r="M149" s="20"/>
+      <c r="N149" s="20"/>
+      <c r="O149" s="20"/>
+      <c r="P149" s="20"/>
+      <c r="Q149" s="20"/>
+      <c r="R149" s="20"/>
+      <c r="S149" s="21"/>
+      <c r="T149" s="21"/>
+      <c r="U149" s="21"/>
+      <c r="V149" s="21"/>
+      <c r="W149" s="20"/>
+      <c r="X149" s="20"/>
+      <c r="Y149" s="20"/>
+      <c r="Z149" s="20"/>
+      <c r="AA149" s="20"/>
+      <c r="AB149" s="20"/>
+      <c r="AC149" s="20"/>
+      <c r="AD149" s="20"/>
+      <c r="AE149" s="20"/>
+      <c r="AF149" s="20"/>
+      <c r="AG149" s="20"/>
+      <c r="AH149" s="20"/>
+      <c r="AI149" s="20"/>
+      <c r="AJ149" s="20"/>
+      <c r="AK149" s="20"/>
+      <c r="AL149" s="20"/>
+      <c r="AM149" s="20"/>
+      <c r="AN149" s="20"/>
+      <c r="AO149" s="20"/>
+      <c r="AP149" s="20"/>
+      <c r="AQ149" s="20"/>
+      <c r="AR149" s="20"/>
+      <c r="AS149" s="20"/>
+      <c r="AT149" s="20"/>
+      <c r="AU149" s="20"/>
+      <c r="AV149" s="20"/>
+      <c r="AW149" s="22"/>
     </row>
     <row r="150" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A150" s="23"/>
-      <c r="AW150" s="24"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
+      <c r="M150" s="20"/>
+      <c r="N150" s="20"/>
+      <c r="O150" s="20"/>
+      <c r="P150" s="20"/>
+      <c r="Q150" s="20"/>
+      <c r="R150" s="20"/>
+      <c r="S150" s="21"/>
+      <c r="T150" s="21"/>
+      <c r="U150" s="21"/>
+      <c r="V150" s="21"/>
+      <c r="W150" s="20"/>
+      <c r="X150" s="20"/>
+      <c r="Y150" s="20"/>
+      <c r="Z150" s="20"/>
+      <c r="AA150" s="20"/>
+      <c r="AB150" s="20"/>
+      <c r="AC150" s="20"/>
+      <c r="AD150" s="20"/>
+      <c r="AE150" s="20"/>
+      <c r="AF150" s="20"/>
+      <c r="AG150" s="20"/>
+      <c r="AH150" s="20"/>
+      <c r="AI150" s="20"/>
+      <c r="AJ150" s="20"/>
+      <c r="AK150" s="20"/>
+      <c r="AL150" s="20"/>
+      <c r="AM150" s="20"/>
+      <c r="AN150" s="20"/>
+      <c r="AO150" s="20"/>
+      <c r="AP150" s="20"/>
+      <c r="AQ150" s="20"/>
+      <c r="AR150" s="20"/>
+      <c r="AS150" s="20"/>
+      <c r="AT150" s="20"/>
+      <c r="AU150" s="20"/>
+      <c r="AV150" s="20"/>
+      <c r="AW150" s="22"/>
     </row>
     <row r="151" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A151" s="23"/>
-      <c r="AW151" s="24"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="20"/>
+      <c r="O151" s="20"/>
+      <c r="P151" s="20"/>
+      <c r="Q151" s="20"/>
+      <c r="R151" s="20"/>
+      <c r="S151" s="21"/>
+      <c r="T151" s="21"/>
+      <c r="U151" s="21"/>
+      <c r="V151" s="21"/>
+      <c r="W151" s="20"/>
+      <c r="X151" s="20"/>
+      <c r="Y151" s="20"/>
+      <c r="Z151" s="20"/>
+      <c r="AA151" s="20"/>
+      <c r="AB151" s="20"/>
+      <c r="AC151" s="20"/>
+      <c r="AD151" s="20"/>
+      <c r="AE151" s="20"/>
+      <c r="AF151" s="20"/>
+      <c r="AG151" s="20"/>
+      <c r="AH151" s="20"/>
+      <c r="AI151" s="20"/>
+      <c r="AJ151" s="20"/>
+      <c r="AK151" s="20"/>
+      <c r="AL151" s="20"/>
+      <c r="AM151" s="20"/>
+      <c r="AN151" s="20"/>
+      <c r="AO151" s="20"/>
+      <c r="AP151" s="20"/>
+      <c r="AQ151" s="20"/>
+      <c r="AR151" s="20"/>
+      <c r="AS151" s="20"/>
+      <c r="AT151" s="20"/>
+      <c r="AU151" s="20"/>
+      <c r="AV151" s="20"/>
+      <c r="AW151" s="22"/>
     </row>
     <row r="152" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A152" s="23"/>
-      <c r="AW152" s="24"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="20"/>
+      <c r="O152" s="20"/>
+      <c r="P152" s="20"/>
+      <c r="Q152" s="20"/>
+      <c r="R152" s="20"/>
+      <c r="S152" s="21"/>
+      <c r="T152" s="21"/>
+      <c r="U152" s="21"/>
+      <c r="V152" s="21"/>
+      <c r="W152" s="20"/>
+      <c r="X152" s="20"/>
+      <c r="Y152" s="20"/>
+      <c r="Z152" s="20"/>
+      <c r="AA152" s="20"/>
+      <c r="AB152" s="20"/>
+      <c r="AC152" s="20"/>
+      <c r="AD152" s="20"/>
+      <c r="AE152" s="20"/>
+      <c r="AF152" s="20"/>
+      <c r="AG152" s="20"/>
+      <c r="AH152" s="20"/>
+      <c r="AI152" s="20"/>
+      <c r="AJ152" s="20"/>
+      <c r="AK152" s="20"/>
+      <c r="AL152" s="20"/>
+      <c r="AM152" s="20"/>
+      <c r="AN152" s="20"/>
+      <c r="AO152" s="20"/>
+      <c r="AP152" s="20"/>
+      <c r="AQ152" s="20"/>
+      <c r="AR152" s="20"/>
+      <c r="AS152" s="20"/>
+      <c r="AT152" s="20"/>
+      <c r="AU152" s="20"/>
+      <c r="AV152" s="20"/>
+      <c r="AW152" s="22"/>
     </row>
     <row r="153" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A153" s="23"/>
-      <c r="AW153" s="24"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="20"/>
+      <c r="O153" s="20"/>
+      <c r="P153" s="20"/>
+      <c r="Q153" s="20"/>
+      <c r="R153" s="20"/>
+      <c r="S153" s="21"/>
+      <c r="T153" s="21"/>
+      <c r="U153" s="21"/>
+      <c r="V153" s="21"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="20"/>
+      <c r="Z153" s="20"/>
+      <c r="AA153" s="20"/>
+      <c r="AB153" s="20"/>
+      <c r="AC153" s="20"/>
+      <c r="AD153" s="20"/>
+      <c r="AE153" s="20"/>
+      <c r="AF153" s="20"/>
+      <c r="AG153" s="20"/>
+      <c r="AH153" s="20"/>
+      <c r="AI153" s="20"/>
+      <c r="AJ153" s="20"/>
+      <c r="AK153" s="20"/>
+      <c r="AL153" s="20"/>
+      <c r="AM153" s="20"/>
+      <c r="AN153" s="20"/>
+      <c r="AO153" s="20"/>
+      <c r="AP153" s="20"/>
+      <c r="AQ153" s="20"/>
+      <c r="AR153" s="20"/>
+      <c r="AS153" s="20"/>
+      <c r="AT153" s="20"/>
+      <c r="AU153" s="20"/>
+      <c r="AV153" s="20"/>
+      <c r="AW153" s="22"/>
     </row>
     <row r="154" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A154" s="23"/>
-      <c r="AW154" s="24"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="20"/>
+      <c r="R154" s="20"/>
+      <c r="S154" s="21"/>
+      <c r="T154" s="21"/>
+      <c r="U154" s="21"/>
+      <c r="V154" s="21"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+      <c r="Z154" s="20"/>
+      <c r="AA154" s="20"/>
+      <c r="AB154" s="20"/>
+      <c r="AC154" s="20"/>
+      <c r="AD154" s="20"/>
+      <c r="AE154" s="20"/>
+      <c r="AF154" s="20"/>
+      <c r="AG154" s="20"/>
+      <c r="AH154" s="20"/>
+      <c r="AI154" s="20"/>
+      <c r="AJ154" s="20"/>
+      <c r="AK154" s="20"/>
+      <c r="AL154" s="20"/>
+      <c r="AM154" s="20"/>
+      <c r="AN154" s="20"/>
+      <c r="AO154" s="20"/>
+      <c r="AP154" s="20"/>
+      <c r="AQ154" s="20"/>
+      <c r="AR154" s="20"/>
+      <c r="AS154" s="20"/>
+      <c r="AT154" s="20"/>
+      <c r="AU154" s="20"/>
+      <c r="AV154" s="20"/>
+      <c r="AW154" s="22"/>
     </row>
     <row r="155" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A155" s="23"/>
-      <c r="AW155" s="24"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="20"/>
+      <c r="O155" s="20"/>
+      <c r="P155" s="20"/>
+      <c r="Q155" s="20"/>
+      <c r="R155" s="20"/>
+      <c r="S155" s="21"/>
+      <c r="T155" s="21"/>
+      <c r="U155" s="21"/>
+      <c r="V155" s="21"/>
+      <c r="W155" s="20"/>
+      <c r="X155" s="20"/>
+      <c r="Y155" s="20"/>
+      <c r="Z155" s="20"/>
+      <c r="AA155" s="20"/>
+      <c r="AB155" s="20"/>
+      <c r="AC155" s="20"/>
+      <c r="AD155" s="20"/>
+      <c r="AE155" s="20"/>
+      <c r="AF155" s="20"/>
+      <c r="AG155" s="20"/>
+      <c r="AH155" s="20"/>
+      <c r="AI155" s="20"/>
+      <c r="AJ155" s="20"/>
+      <c r="AK155" s="20"/>
+      <c r="AL155" s="20"/>
+      <c r="AM155" s="20"/>
+      <c r="AN155" s="20"/>
+      <c r="AO155" s="20"/>
+      <c r="AP155" s="20"/>
+      <c r="AQ155" s="20"/>
+      <c r="AR155" s="20"/>
+      <c r="AS155" s="20"/>
+      <c r="AT155" s="20"/>
+      <c r="AU155" s="20"/>
+      <c r="AV155" s="20"/>
+      <c r="AW155" s="22"/>
     </row>
     <row r="156" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A156" s="23"/>
-      <c r="AW156" s="24"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="20"/>
+      <c r="R156" s="20"/>
+      <c r="S156" s="21"/>
+      <c r="T156" s="21"/>
+      <c r="U156" s="21"/>
+      <c r="V156" s="21"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
+      <c r="Z156" s="20"/>
+      <c r="AA156" s="20"/>
+      <c r="AB156" s="20"/>
+      <c r="AC156" s="20"/>
+      <c r="AD156" s="20"/>
+      <c r="AE156" s="20"/>
+      <c r="AF156" s="20"/>
+      <c r="AG156" s="20"/>
+      <c r="AH156" s="20"/>
+      <c r="AI156" s="20"/>
+      <c r="AJ156" s="20"/>
+      <c r="AK156" s="20"/>
+      <c r="AL156" s="20"/>
+      <c r="AM156" s="20"/>
+      <c r="AN156" s="20"/>
+      <c r="AO156" s="20"/>
+      <c r="AP156" s="20"/>
+      <c r="AQ156" s="20"/>
+      <c r="AR156" s="20"/>
+      <c r="AS156" s="20"/>
+      <c r="AT156" s="20"/>
+      <c r="AU156" s="20"/>
+      <c r="AV156" s="20"/>
+      <c r="AW156" s="22"/>
     </row>
     <row r="157" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A157" s="23"/>
-      <c r="AW157" s="24"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="20"/>
+      <c r="O157" s="20"/>
+      <c r="P157" s="20"/>
+      <c r="Q157" s="20"/>
+      <c r="R157" s="20"/>
+      <c r="S157" s="21"/>
+      <c r="T157" s="21"/>
+      <c r="U157" s="21"/>
+      <c r="V157" s="21"/>
+      <c r="W157" s="20"/>
+      <c r="X157" s="20"/>
+      <c r="Y157" s="20"/>
+      <c r="Z157" s="20"/>
+      <c r="AA157" s="20"/>
+      <c r="AB157" s="20"/>
+      <c r="AC157" s="20"/>
+      <c r="AD157" s="20"/>
+      <c r="AE157" s="20"/>
+      <c r="AF157" s="20"/>
+      <c r="AG157" s="20"/>
+      <c r="AH157" s="20"/>
+      <c r="AI157" s="20"/>
+      <c r="AJ157" s="20"/>
+      <c r="AK157" s="20"/>
+      <c r="AL157" s="20"/>
+      <c r="AM157" s="20"/>
+      <c r="AN157" s="20"/>
+      <c r="AO157" s="20"/>
+      <c r="AP157" s="20"/>
+      <c r="AQ157" s="20"/>
+      <c r="AR157" s="20"/>
+      <c r="AS157" s="20"/>
+      <c r="AT157" s="20"/>
+      <c r="AU157" s="20"/>
+      <c r="AV157" s="20"/>
+      <c r="AW157" s="22"/>
     </row>
     <row r="158" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A158" s="23"/>
-      <c r="AW158" s="24"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="20"/>
+      <c r="O158" s="20"/>
+      <c r="P158" s="20"/>
+      <c r="Q158" s="20"/>
+      <c r="R158" s="20"/>
+      <c r="S158" s="21"/>
+      <c r="T158" s="21"/>
+      <c r="U158" s="21"/>
+      <c r="V158" s="21"/>
+      <c r="W158" s="20"/>
+      <c r="X158" s="20"/>
+      <c r="Y158" s="20"/>
+      <c r="Z158" s="20"/>
+      <c r="AA158" s="20"/>
+      <c r="AB158" s="20"/>
+      <c r="AC158" s="20"/>
+      <c r="AD158" s="20"/>
+      <c r="AE158" s="20"/>
+      <c r="AF158" s="20"/>
+      <c r="AG158" s="20"/>
+      <c r="AH158" s="20"/>
+      <c r="AI158" s="20"/>
+      <c r="AJ158" s="20"/>
+      <c r="AK158" s="20"/>
+      <c r="AL158" s="20"/>
+      <c r="AM158" s="20"/>
+      <c r="AN158" s="20"/>
+      <c r="AO158" s="20"/>
+      <c r="AP158" s="20"/>
+      <c r="AQ158" s="20"/>
+      <c r="AR158" s="20"/>
+      <c r="AS158" s="20"/>
+      <c r="AT158" s="20"/>
+      <c r="AU158" s="20"/>
+      <c r="AV158" s="20"/>
+      <c r="AW158" s="22"/>
     </row>
     <row r="159" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A159" s="23"/>
-      <c r="AW159" s="24"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="20"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="20"/>
+      <c r="O159" s="20"/>
+      <c r="P159" s="20"/>
+      <c r="Q159" s="20"/>
+      <c r="R159" s="20"/>
+      <c r="S159" s="21"/>
+      <c r="T159" s="21"/>
+      <c r="U159" s="21"/>
+      <c r="V159" s="21"/>
+      <c r="W159" s="20"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="20"/>
+      <c r="Z159" s="20"/>
+      <c r="AA159" s="20"/>
+      <c r="AB159" s="20"/>
+      <c r="AC159" s="20"/>
+      <c r="AD159" s="20"/>
+      <c r="AE159" s="20"/>
+      <c r="AF159" s="20"/>
+      <c r="AG159" s="20"/>
+      <c r="AH159" s="20"/>
+      <c r="AI159" s="20"/>
+      <c r="AJ159" s="20"/>
+      <c r="AK159" s="20"/>
+      <c r="AL159" s="20"/>
+      <c r="AM159" s="20"/>
+      <c r="AN159" s="20"/>
+      <c r="AO159" s="20"/>
+      <c r="AP159" s="20"/>
+      <c r="AQ159" s="20"/>
+      <c r="AR159" s="20"/>
+      <c r="AS159" s="20"/>
+      <c r="AT159" s="20"/>
+      <c r="AU159" s="20"/>
+      <c r="AV159" s="20"/>
+      <c r="AW159" s="22"/>
     </row>
     <row r="160" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A160" s="23"/>
-      <c r="AW160" s="24"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="20"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="20"/>
+      <c r="O160" s="20"/>
+      <c r="P160" s="20"/>
+      <c r="Q160" s="20"/>
+      <c r="R160" s="20"/>
+      <c r="S160" s="21"/>
+      <c r="T160" s="21"/>
+      <c r="U160" s="21"/>
+      <c r="V160" s="21"/>
+      <c r="W160" s="20"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="20"/>
+      <c r="Z160" s="20"/>
+      <c r="AA160" s="20"/>
+      <c r="AB160" s="20"/>
+      <c r="AC160" s="20"/>
+      <c r="AD160" s="20"/>
+      <c r="AE160" s="20"/>
+      <c r="AF160" s="20"/>
+      <c r="AG160" s="20"/>
+      <c r="AH160" s="20"/>
+      <c r="AI160" s="20"/>
+      <c r="AJ160" s="20"/>
+      <c r="AK160" s="20"/>
+      <c r="AL160" s="20"/>
+      <c r="AM160" s="20"/>
+      <c r="AN160" s="20"/>
+      <c r="AO160" s="20"/>
+      <c r="AP160" s="20"/>
+      <c r="AQ160" s="20"/>
+      <c r="AR160" s="20"/>
+      <c r="AS160" s="20"/>
+      <c r="AT160" s="20"/>
+      <c r="AU160" s="20"/>
+      <c r="AV160" s="20"/>
+      <c r="AW160" s="22"/>
     </row>
     <row r="161" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A161" s="23"/>
-      <c r="AW161" s="24"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="20"/>
+      <c r="K161" s="20"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="20"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="20"/>
+      <c r="Q161" s="20"/>
+      <c r="R161" s="20"/>
+      <c r="S161" s="21"/>
+      <c r="T161" s="21"/>
+      <c r="U161" s="21"/>
+      <c r="V161" s="21"/>
+      <c r="W161" s="20"/>
+      <c r="X161" s="20"/>
+      <c r="Y161" s="20"/>
+      <c r="Z161" s="20"/>
+      <c r="AA161" s="20"/>
+      <c r="AB161" s="20"/>
+      <c r="AC161" s="20"/>
+      <c r="AD161" s="20"/>
+      <c r="AE161" s="20"/>
+      <c r="AF161" s="20"/>
+      <c r="AG161" s="20"/>
+      <c r="AH161" s="20"/>
+      <c r="AI161" s="20"/>
+      <c r="AJ161" s="20"/>
+      <c r="AK161" s="20"/>
+      <c r="AL161" s="20"/>
+      <c r="AM161" s="20"/>
+      <c r="AN161" s="20"/>
+      <c r="AO161" s="20"/>
+      <c r="AP161" s="20"/>
+      <c r="AQ161" s="20"/>
+      <c r="AR161" s="20"/>
+      <c r="AS161" s="20"/>
+      <c r="AT161" s="20"/>
+      <c r="AU161" s="20"/>
+      <c r="AV161" s="20"/>
+      <c r="AW161" s="22"/>
     </row>
     <row r="162" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A162" s="23"/>
-      <c r="AW162" s="24"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="20"/>
+      <c r="K162" s="20"/>
+      <c r="L162" s="20"/>
+      <c r="M162" s="20"/>
+      <c r="N162" s="20"/>
+      <c r="O162" s="20"/>
+      <c r="P162" s="20"/>
+      <c r="Q162" s="20"/>
+      <c r="R162" s="20"/>
+      <c r="S162" s="21"/>
+      <c r="T162" s="21"/>
+      <c r="U162" s="21"/>
+      <c r="V162" s="21"/>
+      <c r="W162" s="20"/>
+      <c r="X162" s="20"/>
+      <c r="Y162" s="20"/>
+      <c r="Z162" s="20"/>
+      <c r="AA162" s="20"/>
+      <c r="AB162" s="20"/>
+      <c r="AC162" s="20"/>
+      <c r="AD162" s="20"/>
+      <c r="AE162" s="20"/>
+      <c r="AF162" s="20"/>
+      <c r="AG162" s="20"/>
+      <c r="AH162" s="20"/>
+      <c r="AI162" s="20"/>
+      <c r="AJ162" s="20"/>
+      <c r="AK162" s="20"/>
+      <c r="AL162" s="20"/>
+      <c r="AM162" s="20"/>
+      <c r="AN162" s="20"/>
+      <c r="AO162" s="20"/>
+      <c r="AP162" s="20"/>
+      <c r="AQ162" s="20"/>
+      <c r="AR162" s="20"/>
+      <c r="AS162" s="20"/>
+      <c r="AT162" s="20"/>
+      <c r="AU162" s="20"/>
+      <c r="AV162" s="20"/>
+      <c r="AW162" s="22"/>
     </row>
     <row r="163" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A163" s="23"/>
-      <c r="AW163" s="24"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="20"/>
+      <c r="O163" s="20"/>
+      <c r="P163" s="20"/>
+      <c r="Q163" s="20"/>
+      <c r="R163" s="20"/>
+      <c r="S163" s="21"/>
+      <c r="T163" s="21"/>
+      <c r="U163" s="21"/>
+      <c r="V163" s="21"/>
+      <c r="W163" s="20"/>
+      <c r="X163" s="20"/>
+      <c r="Y163" s="20"/>
+      <c r="Z163" s="20"/>
+      <c r="AA163" s="20"/>
+      <c r="AB163" s="20"/>
+      <c r="AC163" s="20"/>
+      <c r="AD163" s="20"/>
+      <c r="AE163" s="20"/>
+      <c r="AF163" s="20"/>
+      <c r="AG163" s="20"/>
+      <c r="AH163" s="20"/>
+      <c r="AI163" s="20"/>
+      <c r="AJ163" s="20"/>
+      <c r="AK163" s="20"/>
+      <c r="AL163" s="20"/>
+      <c r="AM163" s="20"/>
+      <c r="AN163" s="20"/>
+      <c r="AO163" s="20"/>
+      <c r="AP163" s="20"/>
+      <c r="AQ163" s="20"/>
+      <c r="AR163" s="20"/>
+      <c r="AS163" s="20"/>
+      <c r="AT163" s="20"/>
+      <c r="AU163" s="20"/>
+      <c r="AV163" s="20"/>
+      <c r="AW163" s="22"/>
     </row>
     <row r="164" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A164" s="23"/>
-      <c r="AW164" s="24"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="20"/>
+      <c r="O164" s="20"/>
+      <c r="P164" s="20"/>
+      <c r="Q164" s="20"/>
+      <c r="R164" s="20"/>
+      <c r="S164" s="21"/>
+      <c r="T164" s="21"/>
+      <c r="U164" s="21"/>
+      <c r="V164" s="21"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+      <c r="AA164" s="20"/>
+      <c r="AB164" s="20"/>
+      <c r="AC164" s="20"/>
+      <c r="AD164" s="20"/>
+      <c r="AE164" s="20"/>
+      <c r="AF164" s="20"/>
+      <c r="AG164" s="20"/>
+      <c r="AH164" s="20"/>
+      <c r="AI164" s="20"/>
+      <c r="AJ164" s="20"/>
+      <c r="AK164" s="20"/>
+      <c r="AL164" s="20"/>
+      <c r="AM164" s="20"/>
+      <c r="AN164" s="20"/>
+      <c r="AO164" s="20"/>
+      <c r="AP164" s="20"/>
+      <c r="AQ164" s="20"/>
+      <c r="AR164" s="20"/>
+      <c r="AS164" s="20"/>
+      <c r="AT164" s="20"/>
+      <c r="AU164" s="20"/>
+      <c r="AV164" s="20"/>
+      <c r="AW164" s="22"/>
     </row>
     <row r="165" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A165" s="23"/>
-      <c r="AW165" s="24"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="20"/>
+      <c r="O165" s="20"/>
+      <c r="P165" s="20"/>
+      <c r="Q165" s="20"/>
+      <c r="R165" s="20"/>
+      <c r="S165" s="21"/>
+      <c r="T165" s="21"/>
+      <c r="U165" s="21"/>
+      <c r="V165" s="21"/>
+      <c r="W165" s="20"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
+      <c r="Z165" s="20"/>
+      <c r="AA165" s="20"/>
+      <c r="AB165" s="20"/>
+      <c r="AC165" s="20"/>
+      <c r="AD165" s="20"/>
+      <c r="AE165" s="20"/>
+      <c r="AF165" s="20"/>
+      <c r="AG165" s="20"/>
+      <c r="AH165" s="20"/>
+      <c r="AI165" s="20"/>
+      <c r="AJ165" s="20"/>
+      <c r="AK165" s="20"/>
+      <c r="AL165" s="20"/>
+      <c r="AM165" s="20"/>
+      <c r="AN165" s="20"/>
+      <c r="AO165" s="20"/>
+      <c r="AP165" s="20"/>
+      <c r="AQ165" s="20"/>
+      <c r="AR165" s="20"/>
+      <c r="AS165" s="20"/>
+      <c r="AT165" s="20"/>
+      <c r="AU165" s="20"/>
+      <c r="AV165" s="20"/>
+      <c r="AW165" s="22"/>
     </row>
     <row r="166" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A166" s="23"/>
-      <c r="AW166" s="24"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="20"/>
+      <c r="O166" s="20"/>
+      <c r="P166" s="20"/>
+      <c r="Q166" s="20"/>
+      <c r="R166" s="20"/>
+      <c r="S166" s="21"/>
+      <c r="T166" s="21"/>
+      <c r="U166" s="21"/>
+      <c r="V166" s="21"/>
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
+      <c r="Y166" s="20"/>
+      <c r="Z166" s="20"/>
+      <c r="AA166" s="20"/>
+      <c r="AB166" s="20"/>
+      <c r="AC166" s="20"/>
+      <c r="AD166" s="20"/>
+      <c r="AE166" s="20"/>
+      <c r="AF166" s="20"/>
+      <c r="AG166" s="20"/>
+      <c r="AH166" s="20"/>
+      <c r="AI166" s="20"/>
+      <c r="AJ166" s="20"/>
+      <c r="AK166" s="20"/>
+      <c r="AL166" s="20"/>
+      <c r="AM166" s="20"/>
+      <c r="AN166" s="20"/>
+      <c r="AO166" s="20"/>
+      <c r="AP166" s="20"/>
+      <c r="AQ166" s="20"/>
+      <c r="AR166" s="20"/>
+      <c r="AS166" s="20"/>
+      <c r="AT166" s="20"/>
+      <c r="AU166" s="20"/>
+      <c r="AV166" s="20"/>
+      <c r="AW166" s="22"/>
     </row>
     <row r="167" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A167" s="23"/>
-      <c r="AW167" s="24"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="20"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="20"/>
+      <c r="O167" s="20"/>
+      <c r="P167" s="20"/>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="21"/>
+      <c r="T167" s="21"/>
+      <c r="U167" s="21"/>
+      <c r="V167" s="21"/>
+      <c r="W167" s="20"/>
+      <c r="X167" s="20"/>
+      <c r="Y167" s="20"/>
+      <c r="Z167" s="20"/>
+      <c r="AA167" s="20"/>
+      <c r="AB167" s="20"/>
+      <c r="AC167" s="20"/>
+      <c r="AD167" s="20"/>
+      <c r="AE167" s="20"/>
+      <c r="AF167" s="20"/>
+      <c r="AG167" s="20"/>
+      <c r="AH167" s="20"/>
+      <c r="AI167" s="20"/>
+      <c r="AJ167" s="20"/>
+      <c r="AK167" s="20"/>
+      <c r="AL167" s="20"/>
+      <c r="AM167" s="20"/>
+      <c r="AN167" s="20"/>
+      <c r="AO167" s="20"/>
+      <c r="AP167" s="20"/>
+      <c r="AQ167" s="20"/>
+      <c r="AR167" s="20"/>
+      <c r="AS167" s="20"/>
+      <c r="AT167" s="20"/>
+      <c r="AU167" s="20"/>
+      <c r="AV167" s="20"/>
+      <c r="AW167" s="22"/>
     </row>
     <row r="168" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A168" s="23"/>
-      <c r="AW168" s="24"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="20"/>
+      <c r="L168" s="20"/>
+      <c r="M168" s="20"/>
+      <c r="N168" s="20"/>
+      <c r="O168" s="20"/>
+      <c r="P168" s="20"/>
+      <c r="Q168" s="20"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="21"/>
+      <c r="T168" s="21"/>
+      <c r="U168" s="21"/>
+      <c r="V168" s="21"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="20"/>
+      <c r="AA168" s="20"/>
+      <c r="AB168" s="20"/>
+      <c r="AC168" s="20"/>
+      <c r="AD168" s="20"/>
+      <c r="AE168" s="20"/>
+      <c r="AF168" s="20"/>
+      <c r="AG168" s="20"/>
+      <c r="AH168" s="20"/>
+      <c r="AI168" s="20"/>
+      <c r="AJ168" s="20"/>
+      <c r="AK168" s="20"/>
+      <c r="AL168" s="20"/>
+      <c r="AM168" s="20"/>
+      <c r="AN168" s="20"/>
+      <c r="AO168" s="20"/>
+      <c r="AP168" s="20"/>
+      <c r="AQ168" s="20"/>
+      <c r="AR168" s="20"/>
+      <c r="AS168" s="20"/>
+      <c r="AT168" s="20"/>
+      <c r="AU168" s="20"/>
+      <c r="AV168" s="20"/>
+      <c r="AW168" s="22"/>
     </row>
     <row r="169" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A169" s="23"/>
-      <c r="AW169" s="24"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="20"/>
+      <c r="K169" s="20"/>
+      <c r="L169" s="20"/>
+      <c r="M169" s="20"/>
+      <c r="N169" s="20"/>
+      <c r="O169" s="20"/>
+      <c r="P169" s="20"/>
+      <c r="Q169" s="20"/>
+      <c r="R169" s="20"/>
+      <c r="S169" s="21"/>
+      <c r="T169" s="21"/>
+      <c r="U169" s="21"/>
+      <c r="V169" s="21"/>
+      <c r="W169" s="20"/>
+      <c r="X169" s="20"/>
+      <c r="Y169" s="20"/>
+      <c r="Z169" s="20"/>
+      <c r="AA169" s="20"/>
+      <c r="AB169" s="20"/>
+      <c r="AC169" s="20"/>
+      <c r="AD169" s="20"/>
+      <c r="AE169" s="20"/>
+      <c r="AF169" s="20"/>
+      <c r="AG169" s="20"/>
+      <c r="AH169" s="20"/>
+      <c r="AI169" s="20"/>
+      <c r="AJ169" s="20"/>
+      <c r="AK169" s="20"/>
+      <c r="AL169" s="20"/>
+      <c r="AM169" s="20"/>
+      <c r="AN169" s="20"/>
+      <c r="AO169" s="20"/>
+      <c r="AP169" s="20"/>
+      <c r="AQ169" s="20"/>
+      <c r="AR169" s="20"/>
+      <c r="AS169" s="20"/>
+      <c r="AT169" s="20"/>
+      <c r="AU169" s="20"/>
+      <c r="AV169" s="20"/>
+      <c r="AW169" s="22"/>
     </row>
     <row r="170" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A170" s="23"/>
-      <c r="AW170" s="24"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="20"/>
+      <c r="O170" s="20"/>
+      <c r="P170" s="20"/>
+      <c r="Q170" s="20"/>
+      <c r="R170" s="20"/>
+      <c r="S170" s="21"/>
+      <c r="T170" s="21"/>
+      <c r="U170" s="21"/>
+      <c r="V170" s="21"/>
+      <c r="W170" s="20"/>
+      <c r="X170" s="20"/>
+      <c r="Y170" s="20"/>
+      <c r="Z170" s="20"/>
+      <c r="AA170" s="20"/>
+      <c r="AB170" s="20"/>
+      <c r="AC170" s="20"/>
+      <c r="AD170" s="20"/>
+      <c r="AE170" s="20"/>
+      <c r="AF170" s="20"/>
+      <c r="AG170" s="20"/>
+      <c r="AH170" s="20"/>
+      <c r="AI170" s="20"/>
+      <c r="AJ170" s="20"/>
+      <c r="AK170" s="20"/>
+      <c r="AL170" s="20"/>
+      <c r="AM170" s="20"/>
+      <c r="AN170" s="20"/>
+      <c r="AO170" s="20"/>
+      <c r="AP170" s="20"/>
+      <c r="AQ170" s="20"/>
+      <c r="AR170" s="20"/>
+      <c r="AS170" s="20"/>
+      <c r="AT170" s="20"/>
+      <c r="AU170" s="20"/>
+      <c r="AV170" s="20"/>
+      <c r="AW170" s="22"/>
     </row>
     <row r="171" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A171" s="23"/>
-      <c r="AW171" s="24"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="20"/>
+      <c r="L171" s="20"/>
+      <c r="M171" s="20"/>
+      <c r="N171" s="20"/>
+      <c r="O171" s="20"/>
+      <c r="P171" s="20"/>
+      <c r="Q171" s="20"/>
+      <c r="R171" s="20"/>
+      <c r="S171" s="21"/>
+      <c r="T171" s="21"/>
+      <c r="U171" s="21"/>
+      <c r="V171" s="21"/>
+      <c r="W171" s="20"/>
+      <c r="X171" s="20"/>
+      <c r="Y171" s="20"/>
+      <c r="Z171" s="20"/>
+      <c r="AA171" s="20"/>
+      <c r="AB171" s="20"/>
+      <c r="AC171" s="20"/>
+      <c r="AD171" s="20"/>
+      <c r="AE171" s="20"/>
+      <c r="AF171" s="20"/>
+      <c r="AG171" s="20"/>
+      <c r="AH171" s="20"/>
+      <c r="AI171" s="20"/>
+      <c r="AJ171" s="20"/>
+      <c r="AK171" s="20"/>
+      <c r="AL171" s="20"/>
+      <c r="AM171" s="20"/>
+      <c r="AN171" s="20"/>
+      <c r="AO171" s="20"/>
+      <c r="AP171" s="20"/>
+      <c r="AQ171" s="20"/>
+      <c r="AR171" s="20"/>
+      <c r="AS171" s="20"/>
+      <c r="AT171" s="20"/>
+      <c r="AU171" s="20"/>
+      <c r="AV171" s="20"/>
+      <c r="AW171" s="22"/>
     </row>
     <row r="172" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A172" s="23"/>
-      <c r="AW172" s="24"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="20"/>
+      <c r="K172" s="20"/>
+      <c r="L172" s="20"/>
+      <c r="M172" s="20"/>
+      <c r="N172" s="20"/>
+      <c r="O172" s="20"/>
+      <c r="P172" s="20"/>
+      <c r="Q172" s="20"/>
+      <c r="R172" s="20"/>
+      <c r="S172" s="21"/>
+      <c r="T172" s="21"/>
+      <c r="U172" s="21"/>
+      <c r="V172" s="21"/>
+      <c r="W172" s="20"/>
+      <c r="X172" s="20"/>
+      <c r="Y172" s="20"/>
+      <c r="Z172" s="20"/>
+      <c r="AA172" s="20"/>
+      <c r="AB172" s="20"/>
+      <c r="AC172" s="20"/>
+      <c r="AD172" s="20"/>
+      <c r="AE172" s="20"/>
+      <c r="AF172" s="20"/>
+      <c r="AG172" s="20"/>
+      <c r="AH172" s="20"/>
+      <c r="AI172" s="20"/>
+      <c r="AJ172" s="20"/>
+      <c r="AK172" s="20"/>
+      <c r="AL172" s="20"/>
+      <c r="AM172" s="20"/>
+      <c r="AN172" s="20"/>
+      <c r="AO172" s="20"/>
+      <c r="AP172" s="20"/>
+      <c r="AQ172" s="20"/>
+      <c r="AR172" s="20"/>
+      <c r="AS172" s="20"/>
+      <c r="AT172" s="20"/>
+      <c r="AU172" s="20"/>
+      <c r="AV172" s="20"/>
+      <c r="AW172" s="22"/>
     </row>
     <row r="173" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A173" s="23"/>
-      <c r="AW173" s="24"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="20"/>
+      <c r="K173" s="20"/>
+      <c r="L173" s="20"/>
+      <c r="M173" s="20"/>
+      <c r="N173" s="20"/>
+      <c r="O173" s="20"/>
+      <c r="P173" s="20"/>
+      <c r="Q173" s="20"/>
+      <c r="R173" s="20"/>
+      <c r="S173" s="21"/>
+      <c r="T173" s="21"/>
+      <c r="U173" s="21"/>
+      <c r="V173" s="21"/>
+      <c r="W173" s="20"/>
+      <c r="X173" s="20"/>
+      <c r="Y173" s="20"/>
+      <c r="Z173" s="20"/>
+      <c r="AA173" s="20"/>
+      <c r="AB173" s="20"/>
+      <c r="AC173" s="20"/>
+      <c r="AD173" s="20"/>
+      <c r="AE173" s="20"/>
+      <c r="AF173" s="20"/>
+      <c r="AG173" s="20"/>
+      <c r="AH173" s="20"/>
+      <c r="AI173" s="20"/>
+      <c r="AJ173" s="20"/>
+      <c r="AK173" s="20"/>
+      <c r="AL173" s="20"/>
+      <c r="AM173" s="20"/>
+      <c r="AN173" s="20"/>
+      <c r="AO173" s="20"/>
+      <c r="AP173" s="20"/>
+      <c r="AQ173" s="20"/>
+      <c r="AR173" s="20"/>
+      <c r="AS173" s="20"/>
+      <c r="AT173" s="20"/>
+      <c r="AU173" s="20"/>
+      <c r="AV173" s="20"/>
+      <c r="AW173" s="22"/>
     </row>
     <row r="174" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A174" s="23"/>
-      <c r="AW174" s="24"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="20"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="20"/>
+      <c r="M174" s="20"/>
+      <c r="N174" s="20"/>
+      <c r="O174" s="20"/>
+      <c r="P174" s="20"/>
+      <c r="Q174" s="20"/>
+      <c r="R174" s="20"/>
+      <c r="S174" s="21"/>
+      <c r="T174" s="21"/>
+      <c r="U174" s="21"/>
+      <c r="V174" s="21"/>
+      <c r="W174" s="20"/>
+      <c r="X174" s="20"/>
+      <c r="Y174" s="20"/>
+      <c r="Z174" s="20"/>
+      <c r="AA174" s="20"/>
+      <c r="AB174" s="20"/>
+      <c r="AC174" s="20"/>
+      <c r="AD174" s="20"/>
+      <c r="AE174" s="20"/>
+      <c r="AF174" s="20"/>
+      <c r="AG174" s="20"/>
+      <c r="AH174" s="20"/>
+      <c r="AI174" s="20"/>
+      <c r="AJ174" s="20"/>
+      <c r="AK174" s="20"/>
+      <c r="AL174" s="20"/>
+      <c r="AM174" s="20"/>
+      <c r="AN174" s="20"/>
+      <c r="AO174" s="20"/>
+      <c r="AP174" s="20"/>
+      <c r="AQ174" s="20"/>
+      <c r="AR174" s="20"/>
+      <c r="AS174" s="20"/>
+      <c r="AT174" s="20"/>
+      <c r="AU174" s="20"/>
+      <c r="AV174" s="20"/>
+      <c r="AW174" s="22"/>
     </row>
     <row r="175" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A175" s="23"/>
-      <c r="AW175" s="24"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="20"/>
+      <c r="N175" s="20"/>
+      <c r="O175" s="20"/>
+      <c r="P175" s="20"/>
+      <c r="Q175" s="20"/>
+      <c r="R175" s="20"/>
+      <c r="S175" s="21"/>
+      <c r="T175" s="21"/>
+      <c r="U175" s="21"/>
+      <c r="V175" s="21"/>
+      <c r="W175" s="20"/>
+      <c r="X175" s="20"/>
+      <c r="Y175" s="20"/>
+      <c r="Z175" s="20"/>
+      <c r="AA175" s="20"/>
+      <c r="AB175" s="20"/>
+      <c r="AC175" s="20"/>
+      <c r="AD175" s="20"/>
+      <c r="AE175" s="20"/>
+      <c r="AF175" s="20"/>
+      <c r="AG175" s="20"/>
+      <c r="AH175" s="20"/>
+      <c r="AI175" s="20"/>
+      <c r="AJ175" s="20"/>
+      <c r="AK175" s="20"/>
+      <c r="AL175" s="20"/>
+      <c r="AM175" s="20"/>
+      <c r="AN175" s="20"/>
+      <c r="AO175" s="20"/>
+      <c r="AP175" s="20"/>
+      <c r="AQ175" s="20"/>
+      <c r="AR175" s="20"/>
+      <c r="AS175" s="20"/>
+      <c r="AT175" s="20"/>
+      <c r="AU175" s="20"/>
+      <c r="AV175" s="20"/>
+      <c r="AW175" s="22"/>
     </row>
     <row r="176" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A176" s="23"/>
-      <c r="AW176" s="24"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="20"/>
+      <c r="N176" s="20"/>
+      <c r="O176" s="20"/>
+      <c r="P176" s="20"/>
+      <c r="Q176" s="20"/>
+      <c r="R176" s="20"/>
+      <c r="S176" s="21"/>
+      <c r="T176" s="21"/>
+      <c r="U176" s="21"/>
+      <c r="V176" s="21"/>
+      <c r="W176" s="20"/>
+      <c r="X176" s="20"/>
+      <c r="Y176" s="20"/>
+      <c r="Z176" s="20"/>
+      <c r="AA176" s="20"/>
+      <c r="AB176" s="20"/>
+      <c r="AC176" s="20"/>
+      <c r="AD176" s="20"/>
+      <c r="AE176" s="20"/>
+      <c r="AF176" s="20"/>
+      <c r="AG176" s="20"/>
+      <c r="AH176" s="20"/>
+      <c r="AI176" s="20"/>
+      <c r="AJ176" s="20"/>
+      <c r="AK176" s="20"/>
+      <c r="AL176" s="20"/>
+      <c r="AM176" s="20"/>
+      <c r="AN176" s="20"/>
+      <c r="AO176" s="20"/>
+      <c r="AP176" s="20"/>
+      <c r="AQ176" s="20"/>
+      <c r="AR176" s="20"/>
+      <c r="AS176" s="20"/>
+      <c r="AT176" s="20"/>
+      <c r="AU176" s="20"/>
+      <c r="AV176" s="20"/>
+      <c r="AW176" s="22"/>
     </row>
     <row r="177" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A177" s="23"/>
-      <c r="AW177" s="24"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
+      <c r="M177" s="20"/>
+      <c r="N177" s="20"/>
+      <c r="O177" s="20"/>
+      <c r="P177" s="20"/>
+      <c r="Q177" s="20"/>
+      <c r="R177" s="20"/>
+      <c r="S177" s="21"/>
+      <c r="T177" s="21"/>
+      <c r="U177" s="21"/>
+      <c r="V177" s="21"/>
+      <c r="W177" s="20"/>
+      <c r="X177" s="20"/>
+      <c r="Y177" s="20"/>
+      <c r="Z177" s="20"/>
+      <c r="AA177" s="20"/>
+      <c r="AB177" s="20"/>
+      <c r="AC177" s="20"/>
+      <c r="AD177" s="20"/>
+      <c r="AE177" s="20"/>
+      <c r="AF177" s="20"/>
+      <c r="AG177" s="20"/>
+      <c r="AH177" s="20"/>
+      <c r="AI177" s="20"/>
+      <c r="AJ177" s="20"/>
+      <c r="AK177" s="20"/>
+      <c r="AL177" s="20"/>
+      <c r="AM177" s="20"/>
+      <c r="AN177" s="20"/>
+      <c r="AO177" s="20"/>
+      <c r="AP177" s="20"/>
+      <c r="AQ177" s="20"/>
+      <c r="AR177" s="20"/>
+      <c r="AS177" s="20"/>
+      <c r="AT177" s="20"/>
+      <c r="AU177" s="20"/>
+      <c r="AV177" s="20"/>
+      <c r="AW177" s="22"/>
     </row>
     <row r="178" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A178" s="23"/>
-      <c r="AW178" s="24"/>
+      <c r="A178" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" s="78"/>
+      <c r="C178" s="78"/>
+      <c r="D178" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178" s="79"/>
+      <c r="F178" s="79"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="28"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="29"/>
+      <c r="K178" s="29"/>
+      <c r="L178" s="29"/>
+      <c r="M178" s="29"/>
+      <c r="N178" s="29"/>
+      <c r="O178" s="29"/>
+      <c r="P178" s="29"/>
+      <c r="Q178" s="29"/>
+      <c r="R178" s="29"/>
+      <c r="S178" s="29"/>
+      <c r="T178" s="29"/>
+      <c r="U178" s="29"/>
+      <c r="V178" s="29"/>
+      <c r="W178" s="29"/>
+      <c r="X178" s="29"/>
+      <c r="Y178" s="29"/>
+      <c r="Z178" s="29"/>
+      <c r="AA178" s="29"/>
+      <c r="AB178" s="29"/>
+      <c r="AC178" s="29"/>
+      <c r="AD178" s="29"/>
+      <c r="AE178" s="29"/>
+      <c r="AF178" s="29"/>
+      <c r="AG178" s="29"/>
+      <c r="AH178" s="29"/>
+      <c r="AI178" s="29"/>
+      <c r="AJ178" s="29"/>
+      <c r="AK178" s="29"/>
+      <c r="AL178" s="29"/>
+      <c r="AM178" s="29"/>
+      <c r="AN178" s="29"/>
+      <c r="AO178" s="29"/>
+      <c r="AP178" s="29"/>
+      <c r="AQ178" s="29"/>
+      <c r="AR178" s="29"/>
+      <c r="AS178" s="29"/>
+      <c r="AT178" s="29"/>
+      <c r="AU178" s="29"/>
+      <c r="AV178" s="29"/>
+      <c r="AW178" s="30"/>
     </row>
     <row r="179" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A179" s="23"/>
-      <c r="AW179" s="24"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
+      <c r="M179" s="20"/>
+      <c r="N179" s="20"/>
+      <c r="O179" s="20"/>
+      <c r="P179" s="20"/>
+      <c r="Q179" s="20"/>
+      <c r="R179" s="20"/>
+      <c r="S179" s="20"/>
+      <c r="T179" s="20"/>
+      <c r="U179" s="20"/>
+      <c r="V179" s="20"/>
+      <c r="W179" s="20"/>
+      <c r="X179" s="20"/>
+      <c r="Y179" s="20"/>
+      <c r="Z179" s="20"/>
+      <c r="AA179" s="20"/>
+      <c r="AB179" s="20"/>
+      <c r="AC179" s="20"/>
+      <c r="AD179" s="20"/>
+      <c r="AE179" s="20"/>
+      <c r="AF179" s="20"/>
+      <c r="AG179" s="20"/>
+      <c r="AH179" s="20"/>
+      <c r="AI179" s="20"/>
+      <c r="AJ179" s="20"/>
+      <c r="AK179" s="20"/>
+      <c r="AL179" s="20"/>
+      <c r="AM179" s="20"/>
+      <c r="AN179" s="20"/>
+      <c r="AO179" s="20"/>
+      <c r="AP179" s="20"/>
+      <c r="AQ179" s="20"/>
+      <c r="AR179" s="20"/>
+      <c r="AS179" s="20"/>
+      <c r="AT179" s="20"/>
+      <c r="AU179" s="20"/>
+      <c r="AV179" s="20"/>
+      <c r="AW179" s="22"/>
     </row>
     <row r="180" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A180" s="23"/>
+      <c r="B180" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AW180" s="24"/>
     </row>
     <row r="181" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
@@ -9934,6 +13677,9 @@
     </row>
     <row r="206" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A206" s="23"/>
+      <c r="B206" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AW206" s="24"/>
     </row>
     <row r="207" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
@@ -10021,64 +13767,809 @@
       <c r="AW227" s="24"/>
     </row>
     <row r="228" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A228" s="25"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="26"/>
-      <c r="G228" s="26"/>
-      <c r="H228" s="26"/>
-      <c r="I228" s="26"/>
-      <c r="J228" s="26"/>
-      <c r="K228" s="26"/>
-      <c r="L228" s="26"/>
-      <c r="M228" s="26"/>
-      <c r="N228" s="26"/>
-      <c r="O228" s="26"/>
-      <c r="P228" s="26"/>
-      <c r="Q228" s="26"/>
-      <c r="R228" s="26"/>
-      <c r="S228" s="26"/>
-      <c r="T228" s="26"/>
-      <c r="U228" s="26"/>
-      <c r="V228" s="26"/>
-      <c r="W228" s="26"/>
-      <c r="X228" s="26"/>
-      <c r="Y228" s="26"/>
-      <c r="Z228" s="26"/>
-      <c r="AA228" s="26"/>
-      <c r="AB228" s="26"/>
-      <c r="AC228" s="26"/>
-      <c r="AD228" s="26"/>
-      <c r="AE228" s="26"/>
-      <c r="AF228" s="26"/>
-      <c r="AG228" s="26"/>
-      <c r="AH228" s="26"/>
-      <c r="AI228" s="26"/>
-      <c r="AJ228" s="26"/>
-      <c r="AK228" s="26"/>
-      <c r="AL228" s="26"/>
-      <c r="AM228" s="26"/>
-      <c r="AN228" s="26"/>
-      <c r="AO228" s="26"/>
-      <c r="AP228" s="26"/>
-      <c r="AQ228" s="26"/>
-      <c r="AR228" s="26"/>
-      <c r="AS228" s="26"/>
-      <c r="AT228" s="26"/>
-      <c r="AU228" s="26"/>
-      <c r="AV228" s="26"/>
-      <c r="AW228" s="27"/>
+      <c r="A228" s="23"/>
+      <c r="AW228" s="24"/>
+    </row>
+    <row r="229" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A229" s="23"/>
+      <c r="AW229" s="24"/>
+    </row>
+    <row r="230" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A230" s="23"/>
+      <c r="AW230" s="24"/>
+    </row>
+    <row r="231" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A231" s="25"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+      <c r="F231" s="26"/>
+      <c r="G231" s="26"/>
+      <c r="H231" s="26"/>
+      <c r="I231" s="26"/>
+      <c r="J231" s="26"/>
+      <c r="K231" s="26"/>
+      <c r="L231" s="26"/>
+      <c r="M231" s="26"/>
+      <c r="N231" s="26"/>
+      <c r="O231" s="26"/>
+      <c r="P231" s="26"/>
+      <c r="Q231" s="26"/>
+      <c r="R231" s="26"/>
+      <c r="S231" s="26"/>
+      <c r="T231" s="26"/>
+      <c r="U231" s="26"/>
+      <c r="V231" s="26"/>
+      <c r="W231" s="26"/>
+      <c r="X231" s="26"/>
+      <c r="Y231" s="26"/>
+      <c r="Z231" s="26"/>
+      <c r="AA231" s="26"/>
+      <c r="AB231" s="26"/>
+      <c r="AC231" s="26"/>
+      <c r="AD231" s="26"/>
+      <c r="AE231" s="26"/>
+      <c r="AF231" s="26"/>
+      <c r="AG231" s="26"/>
+      <c r="AH231" s="26"/>
+      <c r="AI231" s="26"/>
+      <c r="AJ231" s="26"/>
+      <c r="AK231" s="26"/>
+      <c r="AL231" s="26"/>
+      <c r="AM231" s="26"/>
+      <c r="AN231" s="26"/>
+      <c r="AO231" s="26"/>
+      <c r="AP231" s="26"/>
+      <c r="AQ231" s="26"/>
+      <c r="AR231" s="26"/>
+      <c r="AS231" s="26"/>
+      <c r="AT231" s="26"/>
+      <c r="AU231" s="26"/>
+      <c r="AV231" s="26"/>
+      <c r="AW231" s="27"/>
+    </row>
+    <row r="232" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A232" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="78"/>
+      <c r="C232" s="78"/>
+      <c r="D232" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="79"/>
+      <c r="F232" s="79"/>
+      <c r="G232" s="28"/>
+      <c r="H232" s="28"/>
+      <c r="I232" s="28"/>
+      <c r="J232" s="29"/>
+      <c r="K232" s="29"/>
+      <c r="L232" s="29"/>
+      <c r="M232" s="29"/>
+      <c r="N232" s="29"/>
+      <c r="O232" s="29"/>
+      <c r="P232" s="29"/>
+      <c r="Q232" s="29"/>
+      <c r="R232" s="29"/>
+      <c r="S232" s="29"/>
+      <c r="T232" s="29"/>
+      <c r="U232" s="29"/>
+      <c r="V232" s="29"/>
+      <c r="W232" s="29"/>
+      <c r="X232" s="29"/>
+      <c r="Y232" s="29"/>
+      <c r="Z232" s="29"/>
+      <c r="AA232" s="29"/>
+      <c r="AB232" s="29"/>
+      <c r="AC232" s="29"/>
+      <c r="AD232" s="29"/>
+      <c r="AE232" s="29"/>
+      <c r="AF232" s="29"/>
+      <c r="AG232" s="29"/>
+      <c r="AH232" s="29"/>
+      <c r="AI232" s="29"/>
+      <c r="AJ232" s="29"/>
+      <c r="AK232" s="29"/>
+      <c r="AL232" s="29"/>
+      <c r="AM232" s="29"/>
+      <c r="AN232" s="29"/>
+      <c r="AO232" s="29"/>
+      <c r="AP232" s="29"/>
+      <c r="AQ232" s="29"/>
+      <c r="AR232" s="29"/>
+      <c r="AS232" s="29"/>
+      <c r="AT232" s="29"/>
+      <c r="AU232" s="29"/>
+      <c r="AV232" s="29"/>
+      <c r="AW232" s="30"/>
+    </row>
+    <row r="233" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A233" s="19"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="20"/>
+      <c r="K233" s="20"/>
+      <c r="L233" s="20"/>
+      <c r="M233" s="20"/>
+      <c r="N233" s="20"/>
+      <c r="O233" s="20"/>
+      <c r="P233" s="20"/>
+      <c r="Q233" s="20"/>
+      <c r="R233" s="20"/>
+      <c r="S233" s="20"/>
+      <c r="T233" s="20"/>
+      <c r="U233" s="20"/>
+      <c r="V233" s="20"/>
+      <c r="W233" s="20"/>
+      <c r="X233" s="20"/>
+      <c r="Y233" s="20"/>
+      <c r="Z233" s="20"/>
+      <c r="AA233" s="20"/>
+      <c r="AB233" s="20"/>
+      <c r="AC233" s="20"/>
+      <c r="AD233" s="20"/>
+      <c r="AE233" s="20"/>
+      <c r="AF233" s="20"/>
+      <c r="AG233" s="20"/>
+      <c r="AH233" s="20"/>
+      <c r="AI233" s="20"/>
+      <c r="AJ233" s="20"/>
+      <c r="AK233" s="20"/>
+      <c r="AL233" s="20"/>
+      <c r="AM233" s="20"/>
+      <c r="AN233" s="20"/>
+      <c r="AO233" s="20"/>
+      <c r="AP233" s="20"/>
+      <c r="AQ233" s="20"/>
+      <c r="AR233" s="20"/>
+      <c r="AS233" s="20"/>
+      <c r="AT233" s="20"/>
+      <c r="AU233" s="20"/>
+      <c r="AV233" s="20"/>
+      <c r="AW233" s="22"/>
+    </row>
+    <row r="234" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A234" s="23"/>
+      <c r="AW234" s="24"/>
+    </row>
+    <row r="235" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A235" s="23"/>
+      <c r="AW235" s="24"/>
+    </row>
+    <row r="236" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A236" s="23"/>
+      <c r="AW236" s="24"/>
+    </row>
+    <row r="237" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A237" s="23"/>
+      <c r="AW237" s="24"/>
+    </row>
+    <row r="238" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A238" s="23"/>
+      <c r="AW238" s="24"/>
+    </row>
+    <row r="239" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A239" s="23"/>
+      <c r="AW239" s="24"/>
+    </row>
+    <row r="240" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A240" s="23"/>
+      <c r="AW240" s="24"/>
+    </row>
+    <row r="241" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A241" s="23"/>
+      <c r="AW241" s="24"/>
+    </row>
+    <row r="242" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A242" s="23"/>
+      <c r="AW242" s="24"/>
+    </row>
+    <row r="243" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A243" s="23"/>
+      <c r="AW243" s="24"/>
+    </row>
+    <row r="244" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A244" s="23"/>
+      <c r="AW244" s="24"/>
+    </row>
+    <row r="245" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A245" s="23"/>
+      <c r="AW245" s="24"/>
+    </row>
+    <row r="246" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A246" s="23"/>
+      <c r="AW246" s="24"/>
+    </row>
+    <row r="247" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A247" s="23"/>
+      <c r="AW247" s="24"/>
+    </row>
+    <row r="248" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A248" s="23"/>
+      <c r="AW248" s="24"/>
+    </row>
+    <row r="249" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A249" s="23"/>
+      <c r="AW249" s="24"/>
+    </row>
+    <row r="250" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A250" s="23"/>
+      <c r="AW250" s="24"/>
+    </row>
+    <row r="251" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A251" s="23"/>
+      <c r="AW251" s="24"/>
+    </row>
+    <row r="252" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A252" s="23"/>
+      <c r="AW252" s="24"/>
+    </row>
+    <row r="253" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A253" s="23"/>
+      <c r="AW253" s="24"/>
+    </row>
+    <row r="254" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A254" s="23"/>
+      <c r="AW254" s="24"/>
+    </row>
+    <row r="255" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A255" s="23"/>
+      <c r="AW255" s="24"/>
+    </row>
+    <row r="256" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A256" s="23"/>
+      <c r="AW256" s="24"/>
+    </row>
+    <row r="257" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A257" s="23"/>
+      <c r="AW257" s="24"/>
+    </row>
+    <row r="258" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A258" s="23"/>
+      <c r="B258" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW258" s="24"/>
+    </row>
+    <row r="259" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A259" s="23"/>
+      <c r="AW259" s="24"/>
+    </row>
+    <row r="260" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A260" s="23"/>
+      <c r="AW260" s="24"/>
+    </row>
+    <row r="261" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A261" s="23"/>
+      <c r="AW261" s="24"/>
+    </row>
+    <row r="262" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A262" s="23"/>
+      <c r="AW262" s="24"/>
+    </row>
+    <row r="263" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A263" s="23"/>
+      <c r="AW263" s="24"/>
+    </row>
+    <row r="264" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A264" s="25"/>
+      <c r="B264" s="26"/>
+      <c r="C264" s="26"/>
+      <c r="D264" s="26"/>
+      <c r="E264" s="26"/>
+      <c r="F264" s="26"/>
+      <c r="G264" s="26"/>
+      <c r="H264" s="26"/>
+      <c r="I264" s="26"/>
+      <c r="J264" s="26"/>
+      <c r="K264" s="26"/>
+      <c r="L264" s="26"/>
+      <c r="M264" s="26"/>
+      <c r="N264" s="26"/>
+      <c r="O264" s="26"/>
+      <c r="P264" s="26"/>
+      <c r="Q264" s="26"/>
+      <c r="R264" s="26"/>
+      <c r="S264" s="26"/>
+      <c r="T264" s="26"/>
+      <c r="U264" s="26"/>
+      <c r="V264" s="26"/>
+      <c r="W264" s="26"/>
+      <c r="X264" s="26"/>
+      <c r="Y264" s="26"/>
+      <c r="Z264" s="26"/>
+      <c r="AA264" s="26"/>
+      <c r="AB264" s="26"/>
+      <c r="AC264" s="26"/>
+      <c r="AD264" s="26"/>
+      <c r="AE264" s="26"/>
+      <c r="AF264" s="26"/>
+      <c r="AG264" s="26"/>
+      <c r="AH264" s="26"/>
+      <c r="AI264" s="26"/>
+      <c r="AJ264" s="26"/>
+      <c r="AK264" s="26"/>
+      <c r="AL264" s="26"/>
+      <c r="AM264" s="26"/>
+      <c r="AN264" s="26"/>
+      <c r="AO264" s="26"/>
+      <c r="AP264" s="26"/>
+      <c r="AQ264" s="26"/>
+      <c r="AR264" s="26"/>
+      <c r="AS264" s="26"/>
+      <c r="AT264" s="26"/>
+      <c r="AU264" s="26"/>
+      <c r="AV264" s="26"/>
+      <c r="AW264" s="27"/>
+    </row>
+    <row r="265" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A265" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="78"/>
+      <c r="C265" s="78"/>
+      <c r="D265" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="E265" s="79"/>
+      <c r="F265" s="79"/>
+      <c r="G265" s="28"/>
+      <c r="H265" s="28"/>
+      <c r="I265" s="28"/>
+      <c r="J265" s="29"/>
+      <c r="K265" s="29"/>
+      <c r="L265" s="29"/>
+      <c r="M265" s="29"/>
+      <c r="N265" s="29"/>
+      <c r="O265" s="29"/>
+      <c r="P265" s="29"/>
+      <c r="Q265" s="29"/>
+      <c r="R265" s="29"/>
+      <c r="S265" s="29"/>
+      <c r="T265" s="29"/>
+      <c r="U265" s="29"/>
+      <c r="V265" s="29"/>
+      <c r="W265" s="29"/>
+      <c r="X265" s="29"/>
+      <c r="Y265" s="29"/>
+      <c r="Z265" s="29"/>
+      <c r="AA265" s="29"/>
+      <c r="AB265" s="29"/>
+      <c r="AC265" s="29"/>
+      <c r="AD265" s="29"/>
+      <c r="AE265" s="29"/>
+      <c r="AF265" s="29"/>
+      <c r="AG265" s="29"/>
+      <c r="AH265" s="29"/>
+      <c r="AI265" s="29"/>
+      <c r="AJ265" s="29"/>
+      <c r="AK265" s="29"/>
+      <c r="AL265" s="29"/>
+      <c r="AM265" s="29"/>
+      <c r="AN265" s="29"/>
+      <c r="AO265" s="29"/>
+      <c r="AP265" s="29"/>
+      <c r="AQ265" s="29"/>
+      <c r="AR265" s="29"/>
+      <c r="AS265" s="29"/>
+      <c r="AT265" s="29"/>
+      <c r="AU265" s="29"/>
+      <c r="AV265" s="29"/>
+      <c r="AW265" s="30"/>
+    </row>
+    <row r="266" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A266" s="19"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="20"/>
+      <c r="F266" s="20"/>
+      <c r="G266" s="20"/>
+      <c r="H266" s="20"/>
+      <c r="I266" s="20"/>
+      <c r="J266" s="20"/>
+      <c r="K266" s="20"/>
+      <c r="L266" s="20"/>
+      <c r="M266" s="20"/>
+      <c r="N266" s="20"/>
+      <c r="O266" s="20"/>
+      <c r="P266" s="20"/>
+      <c r="Q266" s="20"/>
+      <c r="R266" s="20"/>
+      <c r="S266" s="20"/>
+      <c r="T266" s="20"/>
+      <c r="U266" s="20"/>
+      <c r="V266" s="20"/>
+      <c r="W266" s="20"/>
+      <c r="X266" s="20"/>
+      <c r="Y266" s="20"/>
+      <c r="Z266" s="20"/>
+      <c r="AA266" s="20"/>
+      <c r="AB266" s="20"/>
+      <c r="AC266" s="20"/>
+      <c r="AD266" s="20"/>
+      <c r="AE266" s="20"/>
+      <c r="AF266" s="20"/>
+      <c r="AG266" s="20"/>
+      <c r="AH266" s="20"/>
+      <c r="AI266" s="20"/>
+      <c r="AJ266" s="20"/>
+      <c r="AK266" s="20"/>
+      <c r="AL266" s="20"/>
+      <c r="AM266" s="20"/>
+      <c r="AN266" s="20"/>
+      <c r="AO266" s="20"/>
+      <c r="AP266" s="20"/>
+      <c r="AQ266" s="20"/>
+      <c r="AR266" s="20"/>
+      <c r="AS266" s="20"/>
+      <c r="AT266" s="20"/>
+      <c r="AU266" s="20"/>
+      <c r="AV266" s="20"/>
+      <c r="AW266" s="22"/>
+    </row>
+    <row r="267" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A267" s="23"/>
+      <c r="B267" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW267" s="24"/>
+    </row>
+    <row r="268" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A268" s="23"/>
+      <c r="AW268" s="24"/>
+    </row>
+    <row r="269" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A269" s="23"/>
+      <c r="AW269" s="24"/>
+    </row>
+    <row r="270" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A270" s="23"/>
+      <c r="AW270" s="24"/>
+    </row>
+    <row r="271" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A271" s="23"/>
+      <c r="AW271" s="24"/>
+    </row>
+    <row r="272" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A272" s="23"/>
+      <c r="AW272" s="24"/>
+    </row>
+    <row r="273" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A273" s="23"/>
+      <c r="AW273" s="24"/>
+    </row>
+    <row r="274" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A274" s="23"/>
+      <c r="AW274" s="24"/>
+    </row>
+    <row r="275" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A275" s="23"/>
+      <c r="AW275" s="24"/>
+    </row>
+    <row r="276" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A276" s="23"/>
+      <c r="AW276" s="24"/>
+    </row>
+    <row r="277" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A277" s="23"/>
+      <c r="AW277" s="24"/>
+    </row>
+    <row r="278" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A278" s="23"/>
+      <c r="AW278" s="24"/>
+    </row>
+    <row r="279" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A279" s="23"/>
+      <c r="AW279" s="24"/>
+    </row>
+    <row r="280" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A280" s="23"/>
+      <c r="AW280" s="24"/>
+    </row>
+    <row r="281" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A281" s="23"/>
+      <c r="AW281" s="24"/>
+    </row>
+    <row r="282" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A282" s="23"/>
+      <c r="AW282" s="24"/>
+    </row>
+    <row r="283" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A283" s="23"/>
+      <c r="AW283" s="24"/>
+    </row>
+    <row r="284" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A284" s="23"/>
+      <c r="AW284" s="24"/>
+    </row>
+    <row r="285" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A285" s="23"/>
+      <c r="AW285" s="24"/>
+    </row>
+    <row r="286" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A286" s="23"/>
+      <c r="AW286" s="24"/>
+    </row>
+    <row r="287" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A287" s="23"/>
+      <c r="AW287" s="24"/>
+    </row>
+    <row r="288" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A288" s="23"/>
+      <c r="AW288" s="24"/>
+    </row>
+    <row r="289" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A289" s="23"/>
+      <c r="AW289" s="24"/>
+    </row>
+    <row r="290" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A290" s="23"/>
+      <c r="AW290" s="24"/>
+    </row>
+    <row r="291" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A291" s="23"/>
+      <c r="AW291" s="24"/>
+    </row>
+    <row r="292" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A292" s="23"/>
+      <c r="AW292" s="24"/>
+    </row>
+    <row r="293" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A293" s="23"/>
+      <c r="AW293" s="24"/>
+    </row>
+    <row r="294" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A294" s="23"/>
+      <c r="AW294" s="24"/>
+    </row>
+    <row r="295" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A295" s="23"/>
+      <c r="AW295" s="24"/>
+    </row>
+    <row r="296" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A296" s="23"/>
+      <c r="AW296" s="24"/>
+    </row>
+    <row r="297" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A297" s="23"/>
+      <c r="AW297" s="24"/>
+    </row>
+    <row r="298" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A298" s="23"/>
+      <c r="AW298" s="24"/>
+    </row>
+    <row r="299" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A299" s="23"/>
+      <c r="AW299" s="24"/>
+    </row>
+    <row r="300" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A300" s="23"/>
+      <c r="AW300" s="24"/>
+    </row>
+    <row r="301" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A301" s="23"/>
+      <c r="AW301" s="24"/>
+    </row>
+    <row r="302" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A302" s="23"/>
+      <c r="AW302" s="24"/>
+    </row>
+    <row r="303" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A303" s="23"/>
+      <c r="AW303" s="24"/>
+    </row>
+    <row r="304" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A304" s="23"/>
+      <c r="AW304" s="24"/>
+    </row>
+    <row r="305" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A305" s="23"/>
+      <c r="AW305" s="24"/>
+    </row>
+    <row r="306" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A306" s="23"/>
+      <c r="AW306" s="24"/>
+    </row>
+    <row r="307" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A307" s="23"/>
+      <c r="AW307" s="24"/>
+    </row>
+    <row r="308" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A308" s="23"/>
+      <c r="AW308" s="24"/>
+    </row>
+    <row r="309" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A309" s="23"/>
+      <c r="AW309" s="24"/>
+    </row>
+    <row r="310" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A310" s="23"/>
+      <c r="AW310" s="24"/>
+    </row>
+    <row r="311" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A311" s="23"/>
+      <c r="AW311" s="24"/>
+    </row>
+    <row r="312" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A312" s="23"/>
+      <c r="AW312" s="24"/>
+    </row>
+    <row r="313" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A313" s="23"/>
+      <c r="AW313" s="24"/>
+    </row>
+    <row r="314" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A314" s="23"/>
+      <c r="AW314" s="24"/>
+    </row>
+    <row r="315" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A315" s="23"/>
+      <c r="B315" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW315" s="24"/>
+    </row>
+    <row r="316" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A316" s="23"/>
+      <c r="AW316" s="24"/>
+    </row>
+    <row r="317" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A317" s="23"/>
+      <c r="AW317" s="24"/>
+    </row>
+    <row r="318" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A318" s="23"/>
+      <c r="AW318" s="24"/>
+    </row>
+    <row r="319" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A319" s="23"/>
+      <c r="AW319" s="24"/>
+    </row>
+    <row r="320" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A320" s="23"/>
+      <c r="AW320" s="24"/>
+    </row>
+    <row r="321" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A321" s="23"/>
+      <c r="AW321" s="24"/>
+    </row>
+    <row r="322" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A322" s="23"/>
+      <c r="AW322" s="24"/>
+    </row>
+    <row r="323" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A323" s="23"/>
+      <c r="AW323" s="24"/>
+    </row>
+    <row r="324" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A324" s="23"/>
+      <c r="AW324" s="24"/>
+    </row>
+    <row r="325" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A325" s="23"/>
+      <c r="AW325" s="24"/>
+    </row>
+    <row r="326" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A326" s="23"/>
+      <c r="AW326" s="24"/>
+    </row>
+    <row r="327" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A327" s="23"/>
+      <c r="AW327" s="24"/>
+    </row>
+    <row r="328" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A328" s="23"/>
+      <c r="AW328" s="24"/>
+    </row>
+    <row r="329" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A329" s="23"/>
+      <c r="AW329" s="24"/>
+    </row>
+    <row r="330" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A330" s="23"/>
+      <c r="AW330" s="24"/>
+    </row>
+    <row r="331" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A331" s="23"/>
+      <c r="AW331" s="24"/>
+    </row>
+    <row r="332" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A332" s="23"/>
+      <c r="AW332" s="24"/>
+    </row>
+    <row r="333" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A333" s="23"/>
+      <c r="AW333" s="24"/>
+    </row>
+    <row r="334" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A334" s="23"/>
+      <c r="AW334" s="24"/>
+    </row>
+    <row r="335" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A335" s="23"/>
+      <c r="AW335" s="24"/>
+    </row>
+    <row r="336" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A336" s="23"/>
+      <c r="AW336" s="24"/>
+    </row>
+    <row r="337" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A337" s="23"/>
+      <c r="AW337" s="24"/>
+    </row>
+    <row r="338" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A338" s="23"/>
+      <c r="AW338" s="24"/>
+    </row>
+    <row r="339" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A339" s="23"/>
+      <c r="AW339" s="24"/>
+    </row>
+    <row r="340" spans="1:49" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A340" s="25"/>
+      <c r="B340" s="26"/>
+      <c r="C340" s="26"/>
+      <c r="D340" s="26"/>
+      <c r="E340" s="26"/>
+      <c r="F340" s="26"/>
+      <c r="G340" s="26"/>
+      <c r="H340" s="26"/>
+      <c r="I340" s="26"/>
+      <c r="J340" s="26"/>
+      <c r="K340" s="26"/>
+      <c r="L340" s="26"/>
+      <c r="M340" s="26"/>
+      <c r="N340" s="26"/>
+      <c r="O340" s="26"/>
+      <c r="P340" s="26"/>
+      <c r="Q340" s="26"/>
+      <c r="R340" s="26"/>
+      <c r="S340" s="26"/>
+      <c r="T340" s="26"/>
+      <c r="U340" s="26"/>
+      <c r="V340" s="26"/>
+      <c r="W340" s="26"/>
+      <c r="X340" s="26"/>
+      <c r="Y340" s="26"/>
+      <c r="Z340" s="26"/>
+      <c r="AA340" s="26"/>
+      <c r="AB340" s="26"/>
+      <c r="AC340" s="26"/>
+      <c r="AD340" s="26"/>
+      <c r="AE340" s="26"/>
+      <c r="AF340" s="26"/>
+      <c r="AG340" s="26"/>
+      <c r="AH340" s="26"/>
+      <c r="AI340" s="26"/>
+      <c r="AJ340" s="26"/>
+      <c r="AK340" s="26"/>
+      <c r="AL340" s="26"/>
+      <c r="AM340" s="26"/>
+      <c r="AN340" s="26"/>
+      <c r="AO340" s="26"/>
+      <c r="AP340" s="26"/>
+      <c r="AQ340" s="26"/>
+      <c r="AR340" s="26"/>
+      <c r="AS340" s="26"/>
+      <c r="AT340" s="26"/>
+      <c r="AU340" s="26"/>
+      <c r="AV340" s="26"/>
+      <c r="AW340" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+  <mergeCells count="23">
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="D265:F265"/>
     <mergeCell ref="A1:N4"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:AA1"/>
@@ -10092,13 +14583,22 @@
     <mergeCell ref="T3:AA3"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="82" max="49" man="1"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="101" max="48" man="1"/>
+    <brk id="177" max="48" man="1"/>
+    <brk id="264" max="48" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10142,45 +14642,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="83" t="str">
+      <c r="H1" s="86" t="str">
         <f>試験項目!S1</f>
         <v>陳恩美</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="83"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="86"/>
     </row>
     <row r="3" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="31" t="s">
         <v>5</v>
       </c>
@@ -10188,19 +14688,19 @@
         <f>試験項目!I3</f>
         <v>在庫センター情報</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="61">
         <f>試験項目!S3</f>
         <v>45799</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
@@ -10208,52 +14708,52 @@
         <f>試験項目!I4</f>
         <v>IT01F004</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="90" t="s">
+      <c r="J5" s="89" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="91"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.6">
       <c r="A7" s="33"/>
